--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="保单" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,16 @@
     <sheet name="批改" sheetId="3" r:id="rId3"/>
     <sheet name="客户关系" sheetId="4" r:id="rId4"/>
     <sheet name="产品设置" sheetId="5" r:id="rId5"/>
-    <sheet name="系统设置" sheetId="6" r:id="rId6"/>
-    <sheet name="索赔" sheetId="7" r:id="rId7"/>
+    <sheet name="索赔" sheetId="7" r:id="rId6"/>
+    <sheet name="系统设置" sheetId="8" r:id="rId7"/>
+    <sheet name="系统设置12" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="827">
   <si>
     <t>保单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2481,6 +2482,405 @@
   </si>
   <si>
     <t>CstProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+  </si>
+  <si>
+    <t>权限名称</t>
+  </si>
+  <si>
+    <t>权限类型</t>
+  </si>
+  <si>
+    <t>系统资源名称</t>
+  </si>
+  <si>
+    <t>资源地址</t>
+  </si>
+  <si>
+    <t>权限分类</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+  </si>
+  <si>
+    <t>菜单标识</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>上级菜单编码</t>
+  </si>
+  <si>
+    <t>菜单夹标志</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>排序序号</t>
+  </si>
+  <si>
+    <t>菜单备注</t>
+  </si>
+  <si>
+    <t>系统用户名</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>UserNo</t>
+  </si>
+  <si>
+    <t>UserNameCn</t>
+  </si>
+  <si>
+    <t>UserNameEn</t>
+  </si>
+  <si>
+    <t>UpUserID</t>
+  </si>
+  <si>
+    <t>P_User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线业务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入司日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书取得日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否营销人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限的类型。01 菜单、02 界面控制组件、03 业务逻辑组件、04 按钮、05 链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Priv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResrcName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResrcAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_RolePriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限对照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UserPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentMenuID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuFolderFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortNo</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>RolePrivID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限对照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPrivID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色与权限对照GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户与权限对照标识GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_CodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType</t>
+  </si>
+  <si>
+    <t>CodeID</t>
+  </si>
+  <si>
+    <t>CodeName</t>
+  </si>
+  <si>
+    <t>ParentCodeID</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Content1</t>
+  </si>
+  <si>
+    <t>Content2</t>
+  </si>
+  <si>
+    <t>Content3</t>
+  </si>
+  <si>
+    <t>Content4</t>
+  </si>
+  <si>
+    <t>Content5</t>
+  </si>
+  <si>
+    <t>CodeTypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidFlag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2559,7 +2959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2573,6 +2973,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2871,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -7343,8 +7749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
@@ -7369,13 +7775,13 @@
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>398</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -8608,7 +9014,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="1:6" outlineLevel="1">
+    <row r="78" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B78" s="1" t="s">
         <v>65</v>
       </c>
@@ -8625,7 +9031,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="1:6" outlineLevel="1">
+    <row r="79" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B79" s="1" t="s">
         <v>444</v>
       </c>
@@ -8642,7 +9048,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="1:6" outlineLevel="1">
+    <row r="80" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B80" s="1" t="s">
         <v>445</v>
       </c>
@@ -8659,7 +9065,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" collapsed="1">
       <c r="A81" s="1" t="s">
         <v>449</v>
       </c>
@@ -8667,7 +9073,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:6" outlineLevel="1">
+    <row r="82" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B82" s="1" t="s">
         <v>423</v>
       </c>
@@ -8684,7 +9090,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="1:6" outlineLevel="1">
+    <row r="83" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B83" s="1" t="s">
         <v>451</v>
       </c>
@@ -8701,7 +9107,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:6" outlineLevel="1">
+    <row r="84" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B84" s="1" t="s">
         <v>452</v>
       </c>
@@ -8718,7 +9124,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:6" outlineLevel="1">
+    <row r="85" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B85" s="1" t="s">
         <v>453</v>
       </c>
@@ -8735,7 +9141,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="86" spans="1:6" outlineLevel="1">
+    <row r="86" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B86" s="1" t="s">
         <v>454</v>
       </c>
@@ -8752,7 +9158,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="87" spans="1:6" outlineLevel="1">
+    <row r="87" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B87" s="1" t="s">
         <v>455</v>
       </c>
@@ -8769,7 +9175,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="88" spans="1:6" outlineLevel="1">
+    <row r="88" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B88" s="1" t="s">
         <v>456</v>
       </c>
@@ -8783,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" outlineLevel="1">
+    <row r="89" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B89" s="1" t="s">
         <v>457</v>
       </c>
@@ -8797,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" outlineLevel="1">
+    <row r="90" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B90" s="1" t="s">
         <v>435</v>
       </c>
@@ -8811,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" outlineLevel="1">
+    <row r="91" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B91" s="1" t="s">
         <v>458</v>
       </c>
@@ -8828,7 +9234,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="92" spans="1:6" outlineLevel="1">
+    <row r="92" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B92" s="1" t="s">
         <v>459</v>
       </c>
@@ -8845,7 +9251,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" collapsed="1">
       <c r="A93" s="1" t="s">
         <v>470</v>
       </c>
@@ -8912,810 +9318,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>20</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>20</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>30</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>300</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="1">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>50</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="1">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <v>50</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1">
-        <v>100</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1">
-        <v>100</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1">
-        <v>200</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1">
-        <v>20</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>20</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1">
-        <v>50</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1">
-        <v>200</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1">
-        <v>500</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="1">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1">
-        <v>200</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1">
-        <v>500</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1">
-        <v>200</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="1">
-        <v>200</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>200</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1">
-        <v>200</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1">
-        <v>50</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G74"/>
   <sheetViews>
@@ -10938,4 +10540,2201 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="6" customWidth="1"/>
+    <col min="7" max="7" width="59.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B2" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B3" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B4" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B5" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6">
+        <v>60</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B6" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B7" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B8" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B10" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B11" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B12" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B13" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B14" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B15" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B16" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6">
+        <v>100</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B17" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B18" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B20" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6">
+        <v>50</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B21" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B22" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>30</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B23" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6">
+        <v>50</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="6">
+        <v>16</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B25" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B26" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>32</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6">
+        <v>50</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B28" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6">
+        <v>100</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B29" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6">
+        <v>100</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B30" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6">
+        <v>200</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B31" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6">
+        <v>20</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" hidden="1" outlineLevel="1">
+      <c r="B32" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B33" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6">
+        <v>50</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B34" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6">
+        <v>200</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B35" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6">
+        <v>500</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B36" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="6">
+        <v>16</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B37" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6">
+        <v>200</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B38" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6">
+        <v>500</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B39" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6">
+        <v>200</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B40" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="6">
+        <v>200</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B41" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="6">
+        <v>200</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B42" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6">
+        <v>200</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B43" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6">
+        <v>50</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B44" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="6">
+        <v>4</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B45" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" collapsed="1">
+      <c r="A46" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B47" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="D47" s="6">
+        <v>32</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" outlineLevel="1">
+      <c r="B48" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="6">
+        <v>50</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="6">
+        <v>16</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" collapsed="1">
+      <c r="A50" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B51" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D51" s="2">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B52" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="2">
+        <v>256</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B53" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B54" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2">
+        <v>256</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B55" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="2">
+        <v>256</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B56" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" collapsed="1">
+      <c r="A57" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B58" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D58" s="2">
+        <v>32</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B59" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D59" s="2">
+        <v>32</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B60" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="2">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" collapsed="1">
+      <c r="A61" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B62" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D62" s="2">
+        <v>32</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B63" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="D63" s="2">
+        <v>32</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B64" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" collapsed="1">
+      <c r="A65" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B66" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D66" s="2">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B67" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D67" s="2">
+        <v>6</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B68" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="2">
+        <v>256</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B69" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="2">
+        <v>16</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B70" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="2">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B71" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="2">
+        <v>256</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B72" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D72" s="2">
+        <v>5</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B73" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="2">
+        <v>256</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" collapsed="1">
+      <c r="A74" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B75" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="6">
+        <v>32</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B76" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" s="6">
+        <v>32</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B77" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="6">
+        <v>32</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B78" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="6">
+        <v>256</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B79" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="6">
+        <v>8</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="B80" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="D80" s="6">
+        <v>5</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B81" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" s="6">
+        <v>256</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B82" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" s="6">
+        <v>256</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B83" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="6">
+        <v>256</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B84" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="6">
+        <v>256</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B85" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="6">
+        <v>256</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B86" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="6">
+        <v>4</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" collapsed="1">
+      <c r="A87" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B88" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="6">
+        <v>32</v>
+      </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B89" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="6">
+        <v>256</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" outlineLevel="1">
+      <c r="B90" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="6">
+        <v>8</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" collapsed="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>200</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>500</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>500</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1">
+        <v>200</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>200</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>200</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>200</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="保单" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="830">
   <si>
     <t>保单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2491,204 +2491,403 @@
     <t>权限名称</t>
   </si>
   <si>
+    <t>权限分类</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>角色标识</t>
+  </si>
+  <si>
+    <t>菜单标识</t>
+  </si>
+  <si>
+    <t>菜单名称</t>
+  </si>
+  <si>
+    <t>上级菜单编码</t>
+  </si>
+  <si>
+    <t>菜单夹标志</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>排序序号</t>
+  </si>
+  <si>
+    <t>菜单备注</t>
+  </si>
+  <si>
+    <t>系统用户名</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>UserNo</t>
+  </si>
+  <si>
+    <t>UserNameCn</t>
+  </si>
+  <si>
+    <t>UserNameEn</t>
+  </si>
+  <si>
+    <t>UpUserID</t>
+  </si>
+  <si>
+    <t>P_User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上线业务员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入司日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>籍贯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书取得日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否营销人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Priv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResrcName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResrcAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_RolePriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限对照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_UserPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentMenuID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuFolderFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortNo</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>RolePrivID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户权限对照表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserPrivID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SortNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色与权限对照GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户与权限对照标识GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_CodeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeType</t>
+  </si>
+  <si>
+    <t>CodeID</t>
+  </si>
+  <si>
+    <t>CodeName</t>
+  </si>
+  <si>
+    <t>ParentCodeID</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Content1</t>
+  </si>
+  <si>
+    <t>Content2</t>
+  </si>
+  <si>
+    <t>Content3</t>
+  </si>
+  <si>
+    <t>Content4</t>
+  </si>
+  <si>
+    <t>Content5</t>
+  </si>
+  <si>
+    <t>CodeTypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValidFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>权限类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统资源名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>资源地址</t>
-  </si>
-  <si>
-    <t>权限分类</t>
-  </si>
-  <si>
-    <t>权限</t>
-  </si>
-  <si>
-    <t>角色标识</t>
-  </si>
-  <si>
-    <t>菜单标识</t>
-  </si>
-  <si>
-    <t>菜单名称</t>
-  </si>
-  <si>
-    <t>上级菜单编码</t>
-  </si>
-  <si>
-    <t>菜单夹标志</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>排序序号</t>
-  </si>
-  <si>
-    <t>菜单备注</t>
-  </si>
-  <si>
-    <t>系统用户名</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>UserNo</t>
-  </si>
-  <si>
-    <t>UserNameCn</t>
-  </si>
-  <si>
-    <t>UserNameEn</t>
-  </si>
-  <si>
-    <t>UpUserID</t>
-  </si>
-  <si>
-    <t>P_User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线业务员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入司日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮编</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>籍贯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高学历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书取得日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否营销人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2696,191 +2895,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_Priv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrivID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrivName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrivType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResrcName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResrcAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SortCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_RolePriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限对照表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_UserPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentMenuID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuFolderFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SortNo</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>RolePrivID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户权限对照表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserPrivID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SortNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色与权限对照GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户与权限对照标识GUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_CodeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeType</t>
-  </si>
-  <si>
-    <t>CodeID</t>
-  </si>
-  <si>
-    <t>CodeName</t>
-  </si>
-  <si>
-    <t>ParentCodeID</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Content1</t>
-  </si>
-  <si>
-    <t>Content2</t>
-  </si>
-  <si>
-    <t>Content3</t>
-  </si>
-  <si>
-    <t>Content4</t>
-  </si>
-  <si>
-    <t>Content5</t>
-  </si>
-  <si>
-    <t>CodeTypeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ValidFlag</t>
+    <t>考虑工作量用户和权限对照暂时不实现，以后实现。目前采用用户-角色-权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7749,7 +7764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
@@ -10544,10 +10559,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1"/>
@@ -10564,15 +10579,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:6" outlineLevel="1">
       <c r="B2" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -10587,9 +10602,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:6" outlineLevel="1">
       <c r="B3" s="6" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -10604,7 +10619,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:6" outlineLevel="1">
       <c r="B4" s="6" t="s">
         <v>511</v>
       </c>
@@ -10618,12 +10633,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" outlineLevel="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" outlineLevel="1">
       <c r="B5" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -10638,9 +10653,9 @@
         <v>548</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:6" outlineLevel="1">
       <c r="B6" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -10655,7 +10670,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:6" outlineLevel="1">
       <c r="B7" s="6" t="s">
         <v>289</v>
       </c>
@@ -10669,10 +10684,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" outlineLevel="1">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" outlineLevel="1">
       <c r="B8" s="6" t="s">
         <v>514</v>
       </c>
@@ -10686,10 +10701,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" outlineLevel="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" outlineLevel="1">
       <c r="B9" s="6" t="s">
         <v>197</v>
       </c>
@@ -10703,10 +10718,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" outlineLevel="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" outlineLevel="1">
       <c r="B10" s="6" t="s">
         <v>515</v>
       </c>
@@ -10720,10 +10735,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" outlineLevel="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" outlineLevel="1">
       <c r="B11" s="6" t="s">
         <v>516</v>
       </c>
@@ -10737,12 +10752,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" outlineLevel="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" outlineLevel="1">
       <c r="B12" s="6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>3</v>
@@ -10754,10 +10769,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" outlineLevel="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" outlineLevel="1">
       <c r="B13" s="6" t="s">
         <v>518</v>
       </c>
@@ -10771,12 +10786,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" outlineLevel="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" outlineLevel="1">
       <c r="B14" s="6" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -10788,10 +10803,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" outlineLevel="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" outlineLevel="1">
       <c r="B15" s="6" t="s">
         <v>520</v>
       </c>
@@ -10805,10 +10820,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" hidden="1" outlineLevel="1">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" outlineLevel="1">
       <c r="B16" s="6" t="s">
         <v>199</v>
       </c>
@@ -10822,10 +10837,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" hidden="1" outlineLevel="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" outlineLevel="1">
       <c r="B17" s="6" t="s">
         <v>200</v>
       </c>
@@ -10839,10 +10854,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" hidden="1" outlineLevel="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" outlineLevel="1">
       <c r="B18" s="6" t="s">
         <v>201</v>
       </c>
@@ -10856,10 +10871,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" hidden="1" outlineLevel="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" outlineLevel="1">
       <c r="B19" s="6" t="s">
         <v>202</v>
       </c>
@@ -10873,10 +10888,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" hidden="1" outlineLevel="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" outlineLevel="1">
       <c r="B20" s="6" t="s">
         <v>203</v>
       </c>
@@ -10890,10 +10905,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" hidden="1" outlineLevel="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" outlineLevel="1">
       <c r="B21" s="6" t="s">
         <v>521</v>
       </c>
@@ -10910,7 +10925,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="2:6" hidden="1" outlineLevel="1">
+    <row r="22" spans="2:6" outlineLevel="1">
       <c r="B22" s="6" t="s">
         <v>522</v>
       </c>
@@ -10927,7 +10942,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="2:6" hidden="1" outlineLevel="1">
+    <row r="23" spans="2:6" outlineLevel="1">
       <c r="B23" s="6" t="s">
         <v>525</v>
       </c>
@@ -10941,10 +10956,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" hidden="1" outlineLevel="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" outlineLevel="1">
       <c r="B24" s="6" t="s">
         <v>102</v>
       </c>
@@ -10958,10 +10973,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" hidden="1" outlineLevel="1">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" outlineLevel="1">
       <c r="B25" s="6" t="s">
         <v>233</v>
       </c>
@@ -10975,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" hidden="1" outlineLevel="1">
+    <row r="26" spans="2:6" outlineLevel="1">
       <c r="B26" s="6" t="s">
         <v>526</v>
       </c>
@@ -10989,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:6" hidden="1" outlineLevel="1">
+    <row r="27" spans="2:6" outlineLevel="1">
       <c r="B27" s="6" t="s">
         <v>235</v>
       </c>
@@ -11003,10 +11018,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" hidden="1" outlineLevel="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" outlineLevel="1">
       <c r="B28" s="6" t="s">
         <v>210</v>
       </c>
@@ -11023,7 +11038,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="2:6" hidden="1" outlineLevel="1">
+    <row r="29" spans="2:6" outlineLevel="1">
       <c r="B29" s="6" t="s">
         <v>211</v>
       </c>
@@ -11037,10 +11052,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" hidden="1" outlineLevel="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" outlineLevel="1">
       <c r="B30" s="6" t="s">
         <v>527</v>
       </c>
@@ -11054,10 +11069,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" hidden="1" outlineLevel="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" outlineLevel="1">
       <c r="B31" s="6" t="s">
         <v>528</v>
       </c>
@@ -11071,10 +11086,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" hidden="1" outlineLevel="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" outlineLevel="1">
       <c r="B32" s="6" t="s">
         <v>529</v>
       </c>
@@ -11088,10 +11103,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" outlineLevel="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1">
       <c r="B33" s="6" t="s">
         <v>530</v>
       </c>
@@ -11105,10 +11120,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" outlineLevel="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" outlineLevel="1">
       <c r="B34" s="6" t="s">
         <v>531</v>
       </c>
@@ -11122,10 +11137,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" outlineLevel="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" outlineLevel="1">
       <c r="B35" s="6" t="s">
         <v>532</v>
       </c>
@@ -11139,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="36" spans="1:6" outlineLevel="1">
       <c r="B36" s="6" t="s">
         <v>533</v>
       </c>
@@ -11153,10 +11168,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" outlineLevel="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" outlineLevel="1">
       <c r="B37" s="6" t="s">
         <v>534</v>
       </c>
@@ -11173,7 +11188,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:6" outlineLevel="1">
       <c r="B38" s="6" t="s">
         <v>535</v>
       </c>
@@ -11190,7 +11205,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:6" outlineLevel="1">
       <c r="B39" s="6" t="s">
         <v>536</v>
       </c>
@@ -11207,7 +11222,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:6" outlineLevel="1">
       <c r="B40" s="6" t="s">
         <v>537</v>
       </c>
@@ -11221,10 +11236,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" hidden="1" outlineLevel="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" outlineLevel="1">
       <c r="B41" s="6" t="s">
         <v>538</v>
       </c>
@@ -11238,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" outlineLevel="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" outlineLevel="1">
       <c r="B42" s="6" t="s">
         <v>539</v>
       </c>
@@ -11255,10 +11270,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" outlineLevel="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" outlineLevel="1">
       <c r="B43" s="6" t="s">
         <v>540</v>
       </c>
@@ -11272,10 +11287,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" outlineLevel="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" outlineLevel="1">
       <c r="B44" s="6" t="s">
         <v>541</v>
       </c>
@@ -11289,10 +11304,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" hidden="1" outlineLevel="1">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" outlineLevel="1">
       <c r="B45" s="6" t="s">
         <v>542</v>
       </c>
@@ -11306,23 +11321,23 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" outlineLevel="1">
+      <c r="B47" s="6" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" collapsed="1">
-      <c r="A46" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" outlineLevel="1">
-      <c r="B47" s="6" t="s">
-        <v>774</v>
-      </c>
       <c r="C47" s="6" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D47" s="6">
         <v>32</v>
@@ -11331,12 +11346,12 @@
         <v>0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" outlineLevel="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" outlineLevel="1">
       <c r="B48" s="6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -11348,10 +11363,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" outlineLevel="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" outlineLevel="1">
       <c r="B49" s="6" t="s">
         <v>102</v>
       </c>
@@ -11368,31 +11383,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:7" collapsed="1">
+    <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" outlineLevel="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" outlineLevel="1">
       <c r="B51" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D51" s="2">
         <v>6</v>
       </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" outlineLevel="1">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" outlineLevel="1">
       <c r="B52" s="5" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>46</v>
@@ -11400,13 +11418,16 @@
       <c r="D52" s="2">
         <v>256</v>
       </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
       <c r="F52" s="5" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:7" outlineLevel="1">
       <c r="B53" s="5" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>46</v>
@@ -11414,16 +11435,19 @@
       <c r="D53" s="2">
         <v>8</v>
       </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
       <c r="F53" s="5" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" outlineLevel="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" outlineLevel="1">
       <c r="B54" s="5" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>46</v>
@@ -11431,13 +11455,16 @@
       <c r="D54" s="2">
         <v>256</v>
       </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" outlineLevel="1">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" outlineLevel="1">
       <c r="B55" s="5" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>46</v>
@@ -11445,13 +11472,16 @@
       <c r="D55" s="2">
         <v>256</v>
       </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" outlineLevel="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" outlineLevel="1">
       <c r="B56" s="5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>46</v>
@@ -11459,54 +11489,57 @@
       <c r="D56" s="2">
         <v>8</v>
       </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
       <c r="F56" s="5" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" collapsed="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="58" spans="1:7" outlineLevel="1">
       <c r="B58" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D58" s="2">
         <v>32</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:7" outlineLevel="1">
       <c r="B59" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D59" s="2">
         <v>32</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:7" outlineLevel="1">
       <c r="B60" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>46</v>
@@ -11520,49 +11553,52 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" collapsed="1">
+    <row r="61" spans="1:7">
       <c r="A61" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" hidden="1" outlineLevel="1">
+      <c r="G61" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" outlineLevel="1">
       <c r="B62" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D62" s="2">
         <v>32</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" outlineLevel="1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" outlineLevel="1">
       <c r="B63" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D63" s="2">
         <v>32</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" outlineLevel="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" outlineLevel="1">
       <c r="B64" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D64" s="2">
         <v>6</v>
@@ -11571,36 +11607,36 @@
         <v>719</v>
       </c>
     </row>
-    <row r="65" spans="1:7" collapsed="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:7" outlineLevel="1">
       <c r="B66" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D66" s="2">
         <v>6</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" outlineLevel="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" outlineLevel="1">
       <c r="B67" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D67" s="2">
         <v>6</v>
@@ -11610,9 +11646,9 @@
         <v>719</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:7" outlineLevel="1">
       <c r="B68" s="5" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>46</v>
@@ -11622,12 +11658,12 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" outlineLevel="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" outlineLevel="1">
       <c r="B69" s="5" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>46</v>
@@ -11637,27 +11673,25 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" hidden="1" outlineLevel="1">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" outlineLevel="1">
       <c r="B70" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="2">
-        <v>8</v>
-      </c>
+        <v>827</v>
+      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" outlineLevel="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" outlineLevel="1">
       <c r="B71" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>46</v>
@@ -11667,28 +11701,28 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:7" outlineLevel="1">
       <c r="B72" s="5" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D72" s="2">
         <v>5</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" outlineLevel="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" outlineLevel="1">
       <c r="B73" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>46</v>
@@ -11698,18 +11732,18 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" collapsed="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" hidden="1" outlineLevel="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" outlineLevel="1">
       <c r="B75" s="6" t="s">
         <v>321</v>
       </c>
@@ -11723,9 +11757,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="76" spans="1:7" outlineLevel="1">
       <c r="B76" s="6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>46</v>
@@ -11737,9 +11771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:7" outlineLevel="1">
       <c r="B77" s="6" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>46</v>
@@ -11751,9 +11785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="78" spans="1:7" outlineLevel="1">
       <c r="B78" s="6" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>46</v>
@@ -11765,9 +11799,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="79" spans="1:7" outlineLevel="1">
       <c r="B79" s="6" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>46</v>
@@ -11779,12 +11813,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" outlineLevel="1">
+    <row r="80" spans="1:7" outlineLevel="1">
       <c r="B80" s="6" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D80" s="6">
         <v>5</v>
@@ -11793,9 +11827,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="81" spans="1:5" outlineLevel="1">
       <c r="B81" s="6" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>46</v>
@@ -11807,9 +11841,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="82" spans="1:5" outlineLevel="1">
       <c r="B82" s="6" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>46</v>
@@ -11821,9 +11855,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="83" spans="1:5" outlineLevel="1">
       <c r="B83" s="6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>46</v>
@@ -11835,9 +11869,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="84" spans="1:5" outlineLevel="1">
       <c r="B84" s="6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>46</v>
@@ -11849,9 +11883,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="85" spans="1:5" outlineLevel="1">
       <c r="B85" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>46</v>
@@ -11863,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="86" spans="1:5" outlineLevel="1">
       <c r="B86" s="6" t="s">
         <v>233</v>
       </c>
@@ -11877,17 +11911,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" collapsed="1">
+    <row r="87" spans="1:5">
       <c r="A87" s="6" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" outlineLevel="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" outlineLevel="1">
       <c r="B88" s="6" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>46</v>
@@ -11899,9 +11933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="89" spans="1:5" outlineLevel="1">
       <c r="B89" s="6" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>46</v>
@@ -11913,9 +11947,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" outlineLevel="1">
+    <row r="90" spans="1:5" outlineLevel="1">
       <c r="B90" s="6" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>46</v>
@@ -11927,7 +11961,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" collapsed="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12078,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" spans="1:6">

--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="保单" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="索赔" sheetId="7" r:id="rId6"/>
     <sheet name="系统设置" sheetId="8" r:id="rId7"/>
     <sheet name="系统设置12" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="业务管理" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="969">
   <si>
     <t>保单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2842,9 +2843,6 @@
     <t>CodeName</t>
   </si>
   <si>
-    <t>ParentCodeID</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
@@ -2857,20 +2855,10 @@
     <t>Content3</t>
   </si>
   <si>
-    <t>Content4</t>
-  </si>
-  <si>
-    <t>Content5</t>
-  </si>
-  <si>
     <t>CodeTypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ValidFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2896,6 +2884,457 @@
   </si>
   <si>
     <t>考虑工作量用户和权限对照暂时不实现，以后实现。目前采用用户-角色-权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主模块</t>
+  </si>
+  <si>
+    <t>子模块</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户列表</t>
+  </si>
+  <si>
+    <t>客户名称、联系人等</t>
+  </si>
+  <si>
+    <t>于英俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>客户联系人</t>
+  </si>
+  <si>
+    <t>业务跟进</t>
+  </si>
+  <si>
+    <t>对客户的业务拜访等信息</t>
+  </si>
+  <si>
+    <t>区域设置</t>
+  </si>
+  <si>
+    <t>设置保险公司属于何省市</t>
+  </si>
+  <si>
+    <t>AreaSetting</t>
+  </si>
+  <si>
+    <t>非车险保单管理</t>
+  </si>
+  <si>
+    <t>保单录入</t>
+  </si>
+  <si>
+    <t>保单录入、保单再保、保单共保</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李明成
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolicyInput</t>
+  </si>
+  <si>
+    <t>保单批改</t>
+  </si>
+  <si>
+    <t>对保单进行批改、批改单保单共保</t>
+  </si>
+  <si>
+    <t>保单审核</t>
+  </si>
+  <si>
+    <t>对录入的保单或批改单进行审核和反审核</t>
+  </si>
+  <si>
+    <t>PolicyCheck</t>
+  </si>
+  <si>
+    <t>保单查询</t>
+  </si>
+  <si>
+    <t>PolicySearch</t>
+  </si>
+  <si>
+    <t>车险保单管理</t>
+  </si>
+  <si>
+    <t>询价单录入</t>
+  </si>
+  <si>
+    <t>AskPriceInput</t>
+  </si>
+  <si>
+    <t>询价单审核</t>
+  </si>
+  <si>
+    <t>对录入的询价单进行审核和反审核</t>
+  </si>
+  <si>
+    <t>AskPriceCheck</t>
+  </si>
+  <si>
+    <t>询价单查询</t>
+  </si>
+  <si>
+    <t>AskPriceSearch</t>
+  </si>
+  <si>
+    <t>CarPolicyInput</t>
+  </si>
+  <si>
+    <t>对保单进行批改</t>
+  </si>
+  <si>
+    <t>CarPolicyAlter</t>
+  </si>
+  <si>
+    <t>对录入的保单进行审核和反审核</t>
+  </si>
+  <si>
+    <t>CarPolicyCheck</t>
+  </si>
+  <si>
+    <t>CarPolicySearch</t>
+  </si>
+  <si>
+    <t>客户理赔</t>
+  </si>
+  <si>
+    <t>理赔登记</t>
+  </si>
+  <si>
+    <t>记录理赔信息</t>
+  </si>
+  <si>
+    <t>于英俊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotifyClaim</t>
+  </si>
+  <si>
+    <t>理赔资料管理</t>
+  </si>
+  <si>
+    <t>设置各保险公司理赔各险种理赔所需资料</t>
+  </si>
+  <si>
+    <t>NotifyClaimDoc</t>
+  </si>
+  <si>
+    <t>业务咨询</t>
+  </si>
+  <si>
+    <t>业务咨询管理</t>
+  </si>
+  <si>
+    <t>BusinessConsult</t>
+  </si>
+  <si>
+    <t>收付结算</t>
+  </si>
+  <si>
+    <t>保费通知书</t>
+  </si>
+  <si>
+    <t>自动生成保费通知书</t>
+  </si>
+  <si>
+    <t>李明成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FeeNotice</t>
+  </si>
+  <si>
+    <t>客户收费</t>
+  </si>
+  <si>
+    <t>录入保费收入信息、生成代收（直付）保费入账单</t>
+  </si>
+  <si>
+    <t>FeeCustomer</t>
+  </si>
+  <si>
+    <t>解付保费</t>
+  </si>
+  <si>
+    <t>录入保费解付信息、代收保费支付单</t>
+  </si>
+  <si>
+    <t>FeePayin</t>
+  </si>
+  <si>
+    <t>经纪费开票</t>
+  </si>
+  <si>
+    <t>解付保费后开票给保险公司、开票通知单</t>
+  </si>
+  <si>
+    <t>FeePayinInvoice</t>
+  </si>
+  <si>
+    <t>经纪费结算</t>
+  </si>
+  <si>
+    <t>录入经纪费收入信息、经纪费入账单</t>
+  </si>
+  <si>
+    <t>FeeProcess</t>
+  </si>
+  <si>
+    <t>台帐管理</t>
+  </si>
+  <si>
+    <t>从收付角度记录一笔业务资金收付的全过程</t>
+  </si>
+  <si>
+    <t>SheetcolumnManager</t>
+  </si>
+  <si>
+    <t>产品设置</t>
+  </si>
+  <si>
+    <t>保险公司</t>
+  </si>
+  <si>
+    <t>设置保险公司信息</t>
+  </si>
+  <si>
+    <t>分支机构</t>
+  </si>
+  <si>
+    <t>设置保险公司的分支机构信息</t>
+  </si>
+  <si>
+    <t>险种定义</t>
+  </si>
+  <si>
+    <t>设置险种大类、险种明细</t>
+  </si>
+  <si>
+    <t>标的定义</t>
+  </si>
+  <si>
+    <t>设置保险标中含有的信息</t>
+  </si>
+  <si>
+    <t>组织设置</t>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>设置员工信息</t>
+  </si>
+  <si>
+    <t>UserManager</t>
+  </si>
+  <si>
+    <t>角色设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置组织结构中的所有角色名称及权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleManager</t>
+  </si>
+  <si>
+    <t>组织机构</t>
+  </si>
+  <si>
+    <t>设置组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentManager</t>
+  </si>
+  <si>
+    <t>信息中心</t>
+  </si>
+  <si>
+    <t>保险参考</t>
+  </si>
+  <si>
+    <t>各种保险相关法律法规备查</t>
+  </si>
+  <si>
+    <t>InfoCenter</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>代码管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统所有的下拉框式编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeManager</t>
+  </si>
+  <si>
+    <t>系统选项</t>
+  </si>
+  <si>
+    <t>设置系统的一些默认参数</t>
+  </si>
+  <si>
+    <t>SystemOption</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePass</t>
+  </si>
+  <si>
+    <t>系统日志</t>
+  </si>
+  <si>
+    <t>记录所有系统中的操作记录</t>
+  </si>
+  <si>
+    <t>Systemlog</t>
+  </si>
+  <si>
+    <t>统计报表</t>
+  </si>
+  <si>
+    <t>业绩报表</t>
+  </si>
+  <si>
+    <t>按不同的口径进行统计业绩、如业务员、保险公司、险种等</t>
+  </si>
+  <si>
+    <t>杨成春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchievementReport</t>
+  </si>
+  <si>
+    <t>结算报表</t>
+  </si>
+  <si>
+    <t>从保费、经纪费等是否收付角度进行业务统计</t>
+  </si>
+  <si>
+    <t>BalanceReport</t>
+  </si>
+  <si>
+    <t>理赔报表</t>
+  </si>
+  <si>
+    <t>生成理赔统计报表</t>
+  </si>
+  <si>
+    <t>GeneralReport</t>
+  </si>
+  <si>
+    <t>常规报表</t>
+  </si>
+  <si>
+    <t>生成预设的各种常规报表，保监会报表、公司统计报表等</t>
+  </si>
+  <si>
+    <t>NotifyClaimReport</t>
+  </si>
+  <si>
+    <t>预算管理</t>
+  </si>
+  <si>
+    <t>实收保费预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有预算数据的导入，签单预算和实收预算</t>
+  </si>
+  <si>
+    <t>SignPremiumBudget</t>
+  </si>
+  <si>
+    <t>签单保费预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomePremiumBudget</t>
+  </si>
+  <si>
+    <t>签单保费预算分析报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignPremiumBudgetAnalyse</t>
+  </si>
+  <si>
+    <t>实收保费预算分析报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成预算和实际完成的各种分析报表</t>
+  </si>
+  <si>
+    <t>IncomePremiumBudgetAnalyse</t>
+  </si>
+  <si>
+    <t>综合查询</t>
+  </si>
+  <si>
+    <t>综合信息查询</t>
+  </si>
+  <si>
+    <t>按不同条件任意查询各种信息</t>
+  </si>
+  <si>
+    <t>GeneralSearch</t>
+  </si>
+  <si>
+    <t>提醒管理</t>
+  </si>
+  <si>
+    <t>服务提醒</t>
+  </si>
+  <si>
+    <t>续保提醒、客户收费提醒、生日祝福等提醒功能</t>
+  </si>
+  <si>
+    <t>AlertService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子模块代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2903,7 +3342,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2951,21 +3393,244 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2974,7 +3639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2995,6 +3660,114 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10559,10 +11332,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1"/>
@@ -11405,7 +12178,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="52" spans="1:7" outlineLevel="1">
@@ -11439,10 +12212,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>824</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="54" spans="1:7" outlineLevel="1">
@@ -11459,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:7" outlineLevel="1">
@@ -11476,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="56" spans="1:7" outlineLevel="1">
@@ -11562,7 +12335,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="G61" s="6" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:7" outlineLevel="1">
@@ -11681,7 +12454,7 @@
         <v>788</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5"/>
@@ -11801,13 +12574,13 @@
     </row>
     <row r="79" spans="1:7" outlineLevel="1">
       <c r="B79" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D79" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
@@ -11815,13 +12588,13 @@
     </row>
     <row r="80" spans="1:7" outlineLevel="1">
       <c r="B80" s="6" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>815</v>
+        <v>46</v>
       </c>
       <c r="D80" s="6">
-        <v>5</v>
+        <v>256</v>
       </c>
       <c r="E80" s="6">
         <v>1</v>
@@ -11855,37 +12628,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" outlineLevel="1">
+    <row r="83" spans="1:5">
+      <c r="A83" s="6" t="s">
+        <v>808</v>
+      </c>
       <c r="B83" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="6">
-        <v>256</v>
-      </c>
-      <c r="E83" s="6">
-        <v>1</v>
+        <v>810</v>
       </c>
     </row>
     <row r="84" spans="1:5" outlineLevel="1">
       <c r="B84" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D84" s="6">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E84" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" outlineLevel="1">
       <c r="B85" s="6" t="s">
-        <v>820</v>
+        <v>784</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>46</v>
@@ -11894,70 +12661,6 @@
         <v>256</v>
       </c>
       <c r="E85" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" outlineLevel="1">
-      <c r="B86" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="6">
-        <v>4</v>
-      </c>
-      <c r="E86" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" outlineLevel="1">
-      <c r="B88" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="6">
-        <v>32</v>
-      </c>
-      <c r="E88" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" outlineLevel="1">
-      <c r="B89" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="6">
-        <v>256</v>
-      </c>
-      <c r="E89" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" outlineLevel="1">
-      <c r="B90" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="6">
-        <v>8</v>
-      </c>
-      <c r="E90" s="6">
         <v>1</v>
       </c>
     </row>
@@ -12770,4 +13473,940 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11">
+        <v>101</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C2" s="13">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18">
+        <v>10102</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18">
+        <v>10103</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>839</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18">
+        <v>10104</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>842</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>841</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5">
+      <c r="A6" s="16">
+        <v>102</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="C6" s="18">
+        <v>10201</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>847</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18">
+        <v>10202</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18">
+        <v>10203</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>852</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18">
+        <v>10204</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>854</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16">
+        <v>103</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="C10" s="18">
+        <v>10301</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>857</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18">
+        <v>10302</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>858</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18">
+        <v>10303</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>861</v>
+      </c>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18">
+        <v>10304</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>863</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>844</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
+        <v>10305</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>865</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18">
+        <v>10306</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18">
+        <v>10307</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>868</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16">
+        <v>104</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="C17" s="18">
+        <v>10401</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>871</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18">
+        <v>10402</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>874</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>875</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="23">
+        <v>105</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="C19" s="24">
+        <v>10501</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>879</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>878</v>
+      </c>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16">
+        <v>106</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="C20" s="18">
+        <v>10601</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>881</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>884</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22.5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18">
+        <v>10602</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>887</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>886</v>
+      </c>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18">
+        <v>10603</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>888</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>890</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>889</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18">
+        <v>10604</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>892</v>
+      </c>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18">
+        <v>10605</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>896</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18">
+        <v>10606</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>898</v>
+      </c>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16">
+        <v>107</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="C26" s="18">
+        <v>10701</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>901</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>902</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="22.5">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18">
+        <v>10702</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>904</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18">
+        <v>10703</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>905</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18">
+        <v>10704</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>907</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16">
+        <v>108</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="C30" s="18">
+        <v>10801</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="22.5">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18">
+        <v>10802</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>914</v>
+      </c>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18">
+        <v>10803</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>917</v>
+      </c>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="27">
+        <v>109</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="C33" s="18">
+        <v>10901</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>921</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="16">
+        <v>110</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C34" s="18">
+        <v>11001</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18">
+        <v>11002</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18">
+        <v>11003</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>930</v>
+      </c>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18">
+        <v>11004</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>932</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" ht="22.5">
+      <c r="A38" s="30">
+        <v>111</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="C38" s="31">
+        <v>11101</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>962</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="22.5">
+      <c r="A39" s="33">
+        <v>112</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>935</v>
+      </c>
+      <c r="C39" s="24">
+        <v>11201</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="22.5">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="24">
+        <v>11202</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>940</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="24">
+        <v>11203</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>943</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:7" ht="22.5">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="24">
+        <v>11204</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>946</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>947</v>
+      </c>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:7" ht="22.5">
+      <c r="A43" s="36">
+        <v>113</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>949</v>
+      </c>
+      <c r="C43" s="31">
+        <v>11301</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>950</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="31">
+        <v>11302</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>953</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="22.5">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="31">
+        <v>11303</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>955</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" ht="22.5">
+      <c r="A46" s="36"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="31">
+        <v>11304</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>958</v>
+      </c>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7" ht="23.25" thickBot="1">
+      <c r="A47" s="38">
+        <v>114</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>964</v>
+      </c>
+      <c r="C47" s="39">
+        <v>11401</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>967</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>966</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>872</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="G6:G16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="999">
   <si>
     <t>保单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2905,10 +2905,6 @@
   </si>
   <si>
     <t>English</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3157,6 +3153,147 @@
     <t>UserManager</t>
   </si>
   <si>
+    <t>RoleManager</t>
+  </si>
+  <si>
+    <t>组织机构</t>
+  </si>
+  <si>
+    <t>DepartmentManager</t>
+  </si>
+  <si>
+    <t>信息中心</t>
+  </si>
+  <si>
+    <t>保险参考</t>
+  </si>
+  <si>
+    <t>各种保险相关法律法规备查</t>
+  </si>
+  <si>
+    <t>InfoCenter</t>
+  </si>
+  <si>
+    <t>系统设置</t>
+  </si>
+  <si>
+    <t>CodeManager</t>
+  </si>
+  <si>
+    <t>系统选项</t>
+  </si>
+  <si>
+    <t>设置系统的一些默认参数</t>
+  </si>
+  <si>
+    <t>SystemOption</t>
+  </si>
+  <si>
+    <t>ChangePass</t>
+  </si>
+  <si>
+    <t>系统日志</t>
+  </si>
+  <si>
+    <t>记录所有系统中的操作记录</t>
+  </si>
+  <si>
+    <t>Systemlog</t>
+  </si>
+  <si>
+    <t>统计报表</t>
+  </si>
+  <si>
+    <t>业绩报表</t>
+  </si>
+  <si>
+    <t>按不同的口径进行统计业绩、如业务员、保险公司、险种等</t>
+  </si>
+  <si>
+    <t>杨成春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AchievementReport</t>
+  </si>
+  <si>
+    <t>结算报表</t>
+  </si>
+  <si>
+    <t>从保费、经纪费等是否收付角度进行业务统计</t>
+  </si>
+  <si>
+    <t>BalanceReport</t>
+  </si>
+  <si>
+    <t>理赔报表</t>
+  </si>
+  <si>
+    <t>生成理赔统计报表</t>
+  </si>
+  <si>
+    <t>GeneralReport</t>
+  </si>
+  <si>
+    <t>常规报表</t>
+  </si>
+  <si>
+    <t>生成预设的各种常规报表，保监会报表、公司统计报表等</t>
+  </si>
+  <si>
+    <t>NotifyClaimReport</t>
+  </si>
+  <si>
+    <t>预算管理</t>
+  </si>
+  <si>
+    <t>现有预算数据的导入，签单预算和实收预算</t>
+  </si>
+  <si>
+    <t>SignPremiumBudget</t>
+  </si>
+  <si>
+    <t>IncomePremiumBudget</t>
+  </si>
+  <si>
+    <t>SignPremiumBudgetAnalyse</t>
+  </si>
+  <si>
+    <t>生成预算和实际完成的各种分析报表</t>
+  </si>
+  <si>
+    <t>IncomePremiumBudgetAnalyse</t>
+  </si>
+  <si>
+    <t>综合查询</t>
+  </si>
+  <si>
+    <t>综合信息查询</t>
+  </si>
+  <si>
+    <t>按不同条件任意查询各种信息</t>
+  </si>
+  <si>
+    <t>GeneralSearch</t>
+  </si>
+  <si>
+    <t>提醒管理</t>
+  </si>
+  <si>
+    <t>服务提醒</t>
+  </si>
+  <si>
+    <t>续保提醒、客户收费提醒、生日祝福等提醒功能</t>
+  </si>
+  <si>
+    <t>子模块代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>角色设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3165,34 +3302,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RoleManager</t>
-  </si>
-  <si>
-    <t>组织机构</t>
-  </si>
-  <si>
     <t>设置组织机构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DepartmentManager</t>
-  </si>
-  <si>
-    <t>信息中心</t>
-  </si>
-  <si>
-    <t>保险参考</t>
-  </si>
-  <si>
-    <t>各种保险相关法律法规备查</t>
-  </si>
-  <si>
-    <t>InfoCenter</t>
-  </si>
-  <si>
-    <t>系统设置</t>
-  </si>
-  <si>
     <t>代码管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3201,140 +3314,204 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CodeManager</t>
-  </si>
-  <si>
-    <t>系统选项</t>
-  </si>
-  <si>
-    <t>设置系统的一些默认参数</t>
-  </si>
-  <si>
-    <t>SystemOption</t>
-  </si>
-  <si>
     <t>修改密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ChangePass</t>
-  </si>
-  <si>
-    <t>系统日志</t>
-  </si>
-  <si>
-    <t>记录所有系统中的操作记录</t>
-  </si>
-  <si>
-    <t>Systemlog</t>
-  </si>
-  <si>
-    <t>统计报表</t>
-  </si>
-  <si>
-    <t>业绩报表</t>
-  </si>
-  <si>
-    <t>按不同的口径进行统计业绩、如业务员、保险公司、险种等</t>
-  </si>
-  <si>
-    <t>杨成春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AchievementReport</t>
-  </si>
-  <si>
-    <t>结算报表</t>
-  </si>
-  <si>
-    <t>从保费、经纪费等是否收付角度进行业务统计</t>
-  </si>
-  <si>
-    <t>BalanceReport</t>
-  </si>
-  <si>
-    <t>理赔报表</t>
-  </si>
-  <si>
-    <t>生成理赔统计报表</t>
-  </si>
-  <si>
-    <t>GeneralReport</t>
-  </si>
-  <si>
-    <t>常规报表</t>
-  </si>
-  <si>
-    <t>生成预设的各种常规报表，保监会报表、公司统计报表等</t>
-  </si>
-  <si>
-    <t>NotifyClaimReport</t>
-  </si>
-  <si>
-    <t>预算管理</t>
-  </si>
-  <si>
     <t>实收保费预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现有预算数据的导入，签单预算和实收预算</t>
-  </si>
-  <si>
-    <t>SignPremiumBudget</t>
-  </si>
-  <si>
     <t>签单保费预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IncomePremiumBudget</t>
-  </si>
-  <si>
     <t>签单保费预算分析报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SignPremiumBudgetAnalyse</t>
-  </si>
-  <si>
     <t>实收保费预算分析报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成预算和实际完成的各种分析报表</t>
-  </si>
-  <si>
-    <t>IncomePremiumBudgetAnalyse</t>
-  </si>
-  <si>
-    <t>综合查询</t>
-  </si>
-  <si>
-    <t>综合信息查询</t>
-  </si>
-  <si>
-    <t>按不同条件任意查询各种信息</t>
-  </si>
-  <si>
-    <t>GeneralSearch</t>
-  </si>
-  <si>
-    <t>提醒管理</t>
-  </si>
-  <si>
-    <t>服务提醒</t>
-  </si>
-  <si>
-    <t>续保提醒、客户收费提醒、生日祝福等提醒功能</t>
-  </si>
-  <si>
     <t>AlertService</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子模块代码</t>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerPtFollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer
+CustomerPtFollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy
+共保
+再保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType
+TargetEnum
+TargetProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Role
+P_RolePriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_CodeType
+P_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fee
+Voucher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fee
+Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的主要表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductType
+Product
+ProdClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLog</t>
+  </si>
+  <si>
+    <t>SysSet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Policy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>共保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+PolicyItem
+PolicyPeriod
+TargetData</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrier
+ProdCarrier
+Products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer
+CustContact</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3345,7 +3522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3414,6 +3591,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3453,7 +3636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3633,6 +3816,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3673,101 +3895,101 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13477,10 +13699,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13488,11 +13710,12 @@
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1">
+    <row r="1" spans="1:8" ht="14.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>826</v>
       </c>
@@ -13500,7 +13723,7 @@
         <v>827</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>828</v>
@@ -13511,899 +13734,1044 @@
       <c r="F1" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="37" t="s">
+        <v>992</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="11">
+    <row r="2" spans="1:8">
+      <c r="A2" s="19">
         <v>101</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="20" t="s">
+        <v>957</v>
+      </c>
+      <c r="C2" s="21">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="C2" s="13">
-        <v>10101</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>833</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>834</v>
       </c>
-      <c r="G2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="22.5">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25">
+        <v>10102</v>
+      </c>
+      <c r="D3" s="26" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18">
-        <v>10102</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>836</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25">
+        <v>10103</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>837</v>
       </c>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18">
-        <v>10103</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>838</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="39" t="s">
+        <v>972</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25">
+        <v>10104</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>839</v>
       </c>
-      <c r="G4" s="20"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18">
-        <v>10104</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>840</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="G5" s="39" t="s">
+        <v>973</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" ht="67.5">
+      <c r="A6" s="23">
+        <v>102</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>842</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>841</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5">
-      <c r="A6" s="16">
-        <v>102</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="25">
+        <v>10201</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>843</v>
       </c>
-      <c r="C6" s="18">
-        <v>10201</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>844</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="G6" s="39" t="s">
+        <v>996</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.5">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25">
+        <v>10202</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>847</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>845</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18">
-        <v>10202</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="22.5">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25">
+        <v>10203</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>849</v>
       </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="22.5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18">
-        <v>10203</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="26" t="s">
+        <v>851</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>850</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="G8" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25">
+        <v>10204</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>852</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>851</v>
-      </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18">
-        <v>10204</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="26" t="s">
         <v>853</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23">
+        <v>103</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>853</v>
-      </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16">
-        <v>103</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="25">
+        <v>10301</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>855</v>
       </c>
-      <c r="C10" s="18">
-        <v>10301</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="26" t="s">
+        <v>855</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.5">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25">
+        <v>10302</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>857</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="22.5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18">
-        <v>10302</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25">
+        <v>10303</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>860</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>859</v>
-      </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18">
-        <v>10303</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="26" t="s">
+        <v>860</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="33.75">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25">
+        <v>10304</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>862</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>861</v>
-      </c>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18">
-        <v>10304</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>844</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>974</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25">
+        <v>10305</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>847</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>864</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>863</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>844</v>
-      </c>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18">
-        <v>10305</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>848</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="G14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.5">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25">
+        <v>10306</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>849</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>865</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>864</v>
-      </c>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" ht="22.5">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18">
-        <v>10306</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>850</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="G15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25">
+        <v>10307</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>866</v>
-      </c>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18">
-        <v>10307</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>853</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23">
+        <v>104</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>868</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>853</v>
-      </c>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="16">
-        <v>104</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="25">
+        <v>10401</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="C17" s="18">
-        <v>10401</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>870</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="G17" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.5">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25">
+        <v>10402</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="E18" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>874</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="27">
+        <v>105</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="C19" s="28">
+        <v>10501</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>876</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>878</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="22.5">
+      <c r="A20" s="23">
+        <v>106</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="C20" s="25">
+        <v>10601</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>880</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>883</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>881</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>991</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22.5">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25">
+        <v>10602</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>884</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>886</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="22.5">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25">
+        <v>10603</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>887</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>889</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>888</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="22.5">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25">
+        <v>10604</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>892</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="22.5">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25">
+        <v>10605</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>893</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>894</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.5">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25">
+        <v>10606</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>898</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>897</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="33.75">
+      <c r="A26" s="23">
+        <v>107</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="C26" s="25">
+        <v>10701</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>997</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>871</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.5">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18">
-        <v>10402</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>874</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>876</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>875</v>
-      </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="23">
-        <v>105</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>877</v>
-      </c>
-      <c r="C19" s="24">
-        <v>10501</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>877</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>879</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>878</v>
-      </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="16">
-        <v>106</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>880</v>
-      </c>
-      <c r="C20" s="18">
-        <v>10601</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>881</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>884</v>
-      </c>
-      <c r="F20" s="19" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="22.5">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25">
+        <v>10702</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>976</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>903</v>
+      </c>
+      <c r="G27" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="33.75">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25">
+        <v>10703</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="33.75">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25">
+        <v>10704</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>906</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="23">
+        <v>108</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="C30" s="25">
+        <v>10801</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>909</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>981</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>882</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="22.5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18">
-        <v>10602</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>885</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>887</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>886</v>
-      </c>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.5">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18">
-        <v>10603</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>888</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>890</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>889</v>
-      </c>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="22.5">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18">
-        <v>10604</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>891</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>893</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>892</v>
-      </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18">
-        <v>10605</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>894</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>896</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>895</v>
-      </c>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="22.5">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18">
-        <v>10606</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>897</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>899</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>898</v>
-      </c>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="16">
-        <v>107</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>900</v>
-      </c>
-      <c r="C26" s="18">
-        <v>10701</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>901</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>902</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="22.5">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18">
-        <v>10702</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>903</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>904</v>
-      </c>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18">
-        <v>10703</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>905</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>906</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18">
-        <v>10704</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>907</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>908</v>
-      </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="16">
-        <v>108</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>909</v>
-      </c>
-      <c r="C30" s="18">
-        <v>10801</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>910</v>
-      </c>
-      <c r="E30" s="19" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="22.5">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25">
+        <v>10802</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>912</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="22.5">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18">
-        <v>10802</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="F31" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>982</v>
+      </c>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="22.5">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25">
+        <v>10803</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>978</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>979</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>983</v>
+      </c>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25">
+        <v>10804</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>988</v>
+      </c>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25">
+        <v>10805</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E34" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>984</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30">
+        <v>109</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>915</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>914</v>
-      </c>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18">
-        <v>10803</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="C35" s="25">
+        <v>10901</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>916</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E35" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F35" s="26" t="s">
         <v>917</v>
       </c>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="27">
-        <v>109</v>
-      </c>
-      <c r="B33" s="18" t="s">
+      <c r="G35" s="39"/>
+      <c r="H35" s="11" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="22.5">
+      <c r="A36" s="23">
+        <v>110</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>919</v>
       </c>
-      <c r="C33" s="18">
-        <v>10901</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="C36" s="25">
+        <v>11001</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>920</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="F36" s="29" t="s">
+        <v>962</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>989</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25">
+        <v>11002</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>921</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="F37" s="26" t="s">
         <v>922</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>921</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="16">
-        <v>110</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="C34" s="18">
-        <v>11001</v>
-      </c>
-      <c r="D34" s="29" t="s">
+      <c r="G37" s="39" t="s">
+        <v>995</v>
+      </c>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25">
+        <v>11003</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>924</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="F38" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25">
+        <v>11004</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>925</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18">
-        <v>11002</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="G39" s="39" t="s">
+        <v>994</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30">
+        <v>111</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="C40" s="25">
+        <v>11101</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>950</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>952</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="12" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="33.75">
+      <c r="A41" s="32">
+        <v>112</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="C41" s="28">
+        <v>11201</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>928</v>
-      </c>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18">
-        <v>11003</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="E41" s="26" t="s">
+        <v>932</v>
+      </c>
+      <c r="F41" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="G41" s="39"/>
+      <c r="H41" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>930</v>
-      </c>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18">
-        <v>11004</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>932</v>
-      </c>
-      <c r="E37" s="19" t="s">
+    </row>
+    <row r="42" spans="1:8" ht="22.5">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="28">
+        <v>11202</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>933</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>935</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>933</v>
-      </c>
-      <c r="G37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" ht="22.5">
-      <c r="A38" s="30">
-        <v>111</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>960</v>
-      </c>
-      <c r="C38" s="31">
-        <v>11101</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>961</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>963</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>962</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="22.5">
-      <c r="A39" s="33">
-        <v>112</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>935</v>
-      </c>
-      <c r="C39" s="24">
-        <v>11201</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="G42" s="39"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="28">
+        <v>11203</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>936</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E43" s="26" t="s">
+        <v>938</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>937</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" ht="33.75">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="28">
+        <v>11204</v>
+      </c>
+      <c r="D44" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>937</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="22.5">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="24">
-        <v>11202</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="E44" s="26" t="s">
+        <v>941</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>940</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="G44" s="39"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" ht="22.5">
+      <c r="A45" s="23">
+        <v>113</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>941</v>
-      </c>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="24">
-        <v>11203</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="C45" s="25">
+        <v>11301</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>943</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="G45" s="39"/>
+      <c r="H45" s="14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25">
+        <v>11302</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>965</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>945</v>
       </c>
-      <c r="F41" s="22" t="s">
-        <v>944</v>
-      </c>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="1:7" ht="22.5">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="24">
-        <v>11204</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="F46" s="26"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" ht="22.5">
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25">
+        <v>11303</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="E47" s="26" t="s">
         <v>946</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="F47" s="26"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" ht="22.5">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="25">
+        <v>11304</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>967</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>948</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F48" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="1:7" ht="22.5">
-      <c r="A43" s="36">
-        <v>113</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>949</v>
-      </c>
-      <c r="C43" s="31">
-        <v>11301</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>950</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>952</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="31">
-        <v>11302</v>
-      </c>
-      <c r="D44" s="22" t="s">
+      <c r="G48" s="39"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" ht="23.25" thickBot="1">
+      <c r="A49" s="34">
+        <v>114</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>953</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="C49" s="35">
+        <v>11401</v>
+      </c>
+      <c r="D49" s="36" t="s">
         <v>954</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" ht="22.5">
-      <c r="A45" s="36"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="31">
-        <v>11303</v>
-      </c>
-      <c r="D45" s="22" t="s">
+      <c r="E49" s="36" t="s">
+        <v>968</v>
+      </c>
+      <c r="F49" s="36" t="s">
         <v>955</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>956</v>
-      </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" ht="22.5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="31">
-        <v>11304</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>957</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>959</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>958</v>
-      </c>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" spans="1:7" ht="23.25" thickBot="1">
-      <c r="A47" s="38">
-        <v>114</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>964</v>
-      </c>
-      <c r="C47" s="39">
-        <v>11401</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>967</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>966</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>872</v>
+      <c r="G49" s="41"/>
+      <c r="H49" s="13" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H6:H16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="H20:H25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="G6:G16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="H45:H48"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="H41:H44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -3904,38 +3904,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3957,12 +3930,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3990,6 +3957,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13701,8 +13701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13734,7 +13734,7 @@
       <c r="F1" s="10" t="s">
         <v>829</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="26" t="s">
         <v>992</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -13742,1027 +13742,1007 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="19">
+      <c r="A2" s="32">
         <v>101</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="34" t="s">
         <v>957</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="14">
         <v>10101</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="27" t="s">
         <v>969</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="36" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="16">
         <v>10102</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="17" t="s">
         <v>836</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="28" t="s">
         <v>998</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="22.5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="16">
         <v>10103</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="17" t="s">
         <v>838</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="28" t="s">
         <v>972</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="16">
         <v>10104</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="17" t="s">
         <v>840</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="28" t="s">
         <v>973</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="23">
+      <c r="A6" s="33">
         <v>102</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="16">
         <v>10201</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="17" t="s">
         <v>844</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="28" t="s">
         <v>996</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="38" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="16">
         <v>10202</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="17" t="s">
         <v>848</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="22.5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="16">
         <v>10203</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="17" t="s">
         <v>851</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="16">
         <v>10204</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="23">
+      <c r="A10" s="33">
         <v>103</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="35" t="s">
         <v>854</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="16">
         <v>10301</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="22.5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="16">
         <v>10302</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="17" t="s">
         <v>858</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="16">
         <v>10303</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="33.75">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="16">
         <v>10304</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="16">
         <v>10305</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="17" t="s">
         <v>864</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="17" t="s">
         <v>863</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="22.5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="16">
         <v>10306</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="17" t="s">
         <v>866</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="16">
         <v>10307</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="17" t="s">
         <v>867</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="23">
+      <c r="A17" s="33">
         <v>104</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="35" t="s">
         <v>868</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="16">
         <v>10401</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="17" t="s">
         <v>869</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="37" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="16">
         <v>10402</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="17" t="s">
         <v>873</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="17" t="s">
         <v>875</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="17" t="s">
         <v>874</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="27">
+      <c r="A19" s="18">
         <v>105</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="19">
         <v>10501</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="17" t="s">
         <v>876</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="17" t="s">
         <v>878</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="14"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="23">
+      <c r="A20" s="33">
         <v>106</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="35" t="s">
         <v>879</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="16">
         <v>10601</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="17" t="s">
         <v>881</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="28" t="s">
         <v>991</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="39" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="16">
         <v>10602</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="17" t="s">
         <v>885</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="H21" s="16"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="22.5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="16">
         <v>10603</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="22.5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="16">
         <v>10604</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="17" t="s">
         <v>892</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="17" t="s">
         <v>891</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="22.5">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="16">
         <v>10605</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="17" t="s">
         <v>895</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="22.5">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="16">
         <v>10606</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="17" t="s">
         <v>898</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="16"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="33.75">
-      <c r="A26" s="23">
+      <c r="A26" s="33">
         <v>107</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="35" t="s">
         <v>899</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="16">
         <v>10701</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="28" t="s">
         <v>997</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="37" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="22.5">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25">
+    <row r="27" spans="1:8">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="16">
         <v>10702</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="17" t="s">
         <v>902</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="17" t="s">
         <v>976</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="33.75">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="16">
         <v>10703</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="33.75">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="16">
         <v>10704</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="17" t="s">
         <v>907</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="28" t="s">
         <v>977</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="23">
+      <c r="A30" s="33">
         <v>108</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="16">
         <v>10801</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="17" t="s">
         <v>911</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="29" t="s">
         <v>981</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="39" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="16">
         <v>10802</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="17" t="s">
         <v>912</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="28" t="s">
         <v>982</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="22.5">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="16">
         <v>10803</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="17" t="s">
         <v>978</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="28" t="s">
         <v>983</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="16">
         <v>10804</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="17" t="s">
         <v>987</v>
       </c>
-      <c r="G33" s="39" t="s">
+      <c r="G33" s="28" t="s">
         <v>988</v>
       </c>
-      <c r="H33" s="16"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="16">
         <v>10805</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="17" t="s">
         <v>960</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="28" t="s">
         <v>984</v>
       </c>
-      <c r="H34" s="16"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="30">
+      <c r="A35" s="21">
         <v>109</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="16" t="s">
         <v>915</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="16">
         <v>10901</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="17" t="s">
         <v>918</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="17" t="s">
         <v>917</v>
       </c>
-      <c r="G35" s="39"/>
+      <c r="G35" s="28"/>
       <c r="H35" s="11" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5">
-      <c r="A36" s="23">
+      <c r="A36" s="33">
         <v>110</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="35" t="s">
         <v>919</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="16">
         <v>11001</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="22" t="s">
         <v>961</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="20" t="s">
         <v>962</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="31" t="s">
         <v>989</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="37" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="23"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="16">
         <v>11002</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="17" t="s">
         <v>923</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="28" t="s">
         <v>995</v>
       </c>
-      <c r="H37" s="14"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="23"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="16">
         <v>11003</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="17" t="s">
         <v>963</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="17" t="s">
         <v>924</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="17" t="s">
         <v>963</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="14"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="23"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="16">
         <v>11004</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="17" t="s">
         <v>927</v>
       </c>
-      <c r="F39" s="26" t="s">
+      <c r="F39" s="17" t="s">
         <v>926</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="28" t="s">
         <v>994</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="30">
+      <c r="A40" s="21">
         <v>111</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="C40" s="25">
+      <c r="C40" s="16">
         <v>11101</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="17" t="s">
         <v>950</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="17" t="s">
         <v>952</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="G40" s="39"/>
+      <c r="G40" s="28"/>
       <c r="H40" s="12" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33.75">
-      <c r="A41" s="32">
+    <row r="41" spans="1:8" ht="22.5">
+      <c r="A41" s="40">
         <v>112</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="41" t="s">
         <v>928</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="19">
         <v>11201</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="17" t="s">
         <v>929</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="17" t="s">
         <v>932</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="17" t="s">
         <v>930</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="15" t="s">
+      <c r="G41" s="28"/>
+      <c r="H41" s="42" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="28">
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="19">
         <v>11202</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="17" t="s">
         <v>933</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="17" t="s">
         <v>935</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="17" t="s">
         <v>934</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="15"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="28">
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="19">
         <v>11203</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="17" t="s">
         <v>936</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="17" t="s">
         <v>937</v>
       </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:8" ht="33.75">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="28">
+      <c r="G43" s="28"/>
+      <c r="H43" s="42"/>
+    </row>
+    <row r="44" spans="1:8" ht="22.5">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="19">
         <v>11204</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="17" t="s">
         <v>939</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="17" t="s">
         <v>940</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="15"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" ht="22.5">
-      <c r="A45" s="23">
+      <c r="A45" s="33">
         <v>113</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="35" t="s">
         <v>942</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="16">
         <v>11301</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="17" t="s">
         <v>964</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="17" t="s">
         <v>944</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="14" t="s">
+      <c r="G45" s="28"/>
+      <c r="H45" s="37" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="16">
         <v>11302</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="17" t="s">
         <v>965</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="17" t="s">
         <v>945</v>
       </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="14"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" ht="22.5">
-      <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="16">
         <v>11303</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="17" t="s">
         <v>946</v>
       </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="14"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:8" ht="22.5">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="16">
         <v>11304</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="17" t="s">
         <v>947</v>
       </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="14"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A49" s="34">
+      <c r="A49" s="23">
         <v>114</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="24" t="s">
         <v>953</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="24">
         <v>11401</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="25" t="s">
         <v>954</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="25" t="s">
         <v>968</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="25" t="s">
         <v>955</v>
       </c>
-      <c r="G49" s="41"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="13" t="s">
         <v>871</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H6:H16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="H30:H34"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="H45:H48"/>
@@ -14772,6 +14752,26 @@
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="H41:H44"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H6:H16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -3112,9 +3112,6 @@
   </si>
   <si>
     <t>SheetcolumnManager</t>
-  </si>
-  <si>
-    <t>产品设置</t>
   </si>
   <si>
     <t>保险公司</t>
@@ -3512,6 +3509,10 @@
   <si>
     <t>Customer
 CustContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3958,28 +3959,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3990,6 +3976,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13701,8 +13702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13723,7 +13724,7 @@
         <v>827</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>828</v>
@@ -13735,18 +13736,18 @@
         <v>829</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="32">
+      <c r="A2" s="39">
         <v>101</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>957</v>
+      <c r="B2" s="40" t="s">
+        <v>956</v>
       </c>
       <c r="C2" s="14">
         <v>10101</v>
@@ -13761,15 +13762,15 @@
         <v>833</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>969</v>
-      </c>
-      <c r="H2" s="36" t="s">
+        <v>968</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="16">
         <v>10102</v>
       </c>
@@ -13777,19 +13778,19 @@
         <v>835</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>836</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>998</v>
-      </c>
-      <c r="H3" s="37"/>
+        <v>997</v>
+      </c>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="22.5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="16">
         <v>10103</v>
       </c>
@@ -13797,19 +13798,19 @@
         <v>837</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>972</v>
-      </c>
-      <c r="H4" s="37"/>
+        <v>971</v>
+      </c>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="16">
         <v>10104</v>
       </c>
@@ -13823,15 +13824,15 @@
         <v>840</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>973</v>
-      </c>
-      <c r="H5" s="37"/>
+        <v>972</v>
+      </c>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>102</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>842</v>
       </c>
       <c r="C6" s="16">
@@ -13847,15 +13848,15 @@
         <v>844</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>996</v>
-      </c>
-      <c r="H6" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="H6" s="42" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16">
         <v>10202</v>
       </c>
@@ -13869,13 +13870,13 @@
         <v>848</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>975</v>
-      </c>
-      <c r="H7" s="38"/>
+        <v>974</v>
+      </c>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" ht="22.5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="16">
         <v>10203</v>
       </c>
@@ -13889,13 +13890,13 @@
         <v>850</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>975</v>
-      </c>
-      <c r="H8" s="38"/>
+        <v>974</v>
+      </c>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="16">
         <v>10204</v>
       </c>
@@ -13909,15 +13910,15 @@
         <v>852</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>975</v>
-      </c>
-      <c r="H9" s="38"/>
+        <v>974</v>
+      </c>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>103</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>854</v>
       </c>
       <c r="C10" s="16">
@@ -13933,11 +13934,11 @@
         <v>855</v>
       </c>
       <c r="G10" s="28"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="22.5">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="16">
         <v>10302</v>
       </c>
@@ -13951,11 +13952,11 @@
         <v>858</v>
       </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="16">
         <v>10303</v>
       </c>
@@ -13969,11 +13970,11 @@
         <v>860</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="33.75">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="16">
         <v>10304</v>
       </c>
@@ -13987,13 +13988,13 @@
         <v>843</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>974</v>
-      </c>
-      <c r="H13" s="38"/>
+        <v>973</v>
+      </c>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="16">
         <v>10305</v>
       </c>
@@ -14009,11 +14010,11 @@
       <c r="G14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="22.5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="16">
         <v>10306</v>
       </c>
@@ -14029,11 +14030,11 @@
       <c r="G15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="16">
         <v>10307</v>
       </c>
@@ -14049,13 +14050,13 @@
       <c r="G16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>104</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>868</v>
       </c>
       <c r="C17" s="16">
@@ -14073,13 +14074,13 @@
       <c r="G17" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="16">
         <v>10402</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>874</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="H18" s="37"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="18">
@@ -14115,13 +14116,13 @@
         <v>877</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="37"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>106</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>879</v>
       </c>
       <c r="C20" s="16">
@@ -14137,15 +14138,15 @@
         <v>881</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>991</v>
-      </c>
-      <c r="H20" s="39" t="s">
+        <v>990</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="16">
         <v>10602</v>
       </c>
@@ -14159,13 +14160,13 @@
         <v>885</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>990</v>
-      </c>
-      <c r="H21" s="39"/>
+        <v>989</v>
+      </c>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="22.5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="16">
         <v>10603</v>
       </c>
@@ -14179,13 +14180,13 @@
         <v>888</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>990</v>
-      </c>
-      <c r="H22" s="39"/>
+        <v>989</v>
+      </c>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="22.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="16">
         <v>10604</v>
       </c>
@@ -14199,13 +14200,13 @@
         <v>891</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>990</v>
-      </c>
-      <c r="H23" s="39"/>
+        <v>989</v>
+      </c>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="22.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="16">
         <v>10605</v>
       </c>
@@ -14219,13 +14220,13 @@
         <v>894</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>990</v>
-      </c>
-      <c r="H24" s="39"/>
+        <v>989</v>
+      </c>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="22.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="16">
         <v>10606</v>
       </c>
@@ -14239,218 +14240,218 @@
         <v>897</v>
       </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="33.75">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>107</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>899</v>
+      <c r="B26" s="33" t="s">
+        <v>998</v>
       </c>
       <c r="C26" s="16">
         <v>10701</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>367</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>997</v>
-      </c>
-      <c r="H26" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="16">
         <v>10702</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>902</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>976</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>903</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="33.75">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="16">
         <v>10703</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>398</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="H28" s="37"/>
+        <v>992</v>
+      </c>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="33.75">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="16">
         <v>10704</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>442</v>
       </c>
       <c r="F29" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>976</v>
+      </c>
+      <c r="H29" s="34"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="32">
+        <v>108</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>907</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>977</v>
-      </c>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="33">
-        <v>108</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>908</v>
       </c>
       <c r="C30" s="16">
         <v>10801</v>
       </c>
       <c r="D30" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>909</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>911</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>910</v>
-      </c>
       <c r="G30" s="29" t="s">
-        <v>981</v>
-      </c>
-      <c r="H30" s="39" t="s">
+        <v>980</v>
+      </c>
+      <c r="H30" s="38" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="16">
         <v>10802</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>912</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>959</v>
-      </c>
       <c r="G31" s="28" t="s">
-        <v>982</v>
-      </c>
-      <c r="H31" s="39"/>
+        <v>981</v>
+      </c>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="22.5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="16">
         <v>10803</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>978</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>980</v>
-      </c>
       <c r="G32" s="28" t="s">
-        <v>983</v>
-      </c>
-      <c r="H32" s="39"/>
+        <v>982</v>
+      </c>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="33"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="16">
         <v>10804</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>985</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="F33" s="17" t="s">
         <v>986</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="G33" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="G33" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="16">
         <v>10805</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>913</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>914</v>
-      </c>
       <c r="F34" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>984</v>
-      </c>
-      <c r="H34" s="39"/>
+        <v>983</v>
+      </c>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="21">
         <v>109</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C35" s="16">
         <v>10901</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>916</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>918</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>917</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="11" t="s">
@@ -14458,107 +14459,107 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>110</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>919</v>
+      <c r="B36" s="33" t="s">
+        <v>918</v>
       </c>
       <c r="C36" s="16">
         <v>11001</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>960</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>961</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>962</v>
-      </c>
       <c r="G36" s="31" t="s">
-        <v>989</v>
-      </c>
-      <c r="H36" s="37" t="s">
+        <v>988</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="33"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="16">
         <v>11002</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>921</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>923</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>922</v>
-      </c>
       <c r="G37" s="28" t="s">
-        <v>995</v>
-      </c>
-      <c r="H37" s="37"/>
+        <v>994</v>
+      </c>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="33"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="16">
         <v>11003</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="37"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="33"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="16">
         <v>11004</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>925</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>927</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>926</v>
-      </c>
       <c r="G39" s="28" t="s">
-        <v>994</v>
-      </c>
-      <c r="H39" s="37"/>
+        <v>993</v>
+      </c>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="21">
         <v>111</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C40" s="16">
         <v>11101</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>950</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>951</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="12" t="s">
@@ -14566,175 +14567,175 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5">
-      <c r="A41" s="40">
+      <c r="A41" s="35">
         <v>112</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>928</v>
+      <c r="B41" s="36" t="s">
+        <v>927</v>
       </c>
       <c r="C41" s="19">
         <v>11201</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>929</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="F41" s="17" t="s">
+      <c r="G41" s="28"/>
+      <c r="H41" s="37" t="s">
         <v>930</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="42" t="s">
-        <v>931</v>
-      </c>
     </row>
     <row r="42" spans="1:8" ht="22.5">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="19">
         <v>11202</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>933</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>935</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>934</v>
-      </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="42"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="19">
         <v>11203</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>936</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>937</v>
-      </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="42"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="22.5">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="19">
         <v>11204</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>939</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="G44" s="28"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45" spans="1:8" ht="22.5">
+      <c r="A45" s="32">
+        <v>113</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>941</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>940</v>
-      </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="42"/>
-    </row>
-    <row r="45" spans="1:8" ht="22.5">
-      <c r="A45" s="33">
-        <v>113</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>942</v>
       </c>
       <c r="C45" s="16">
         <v>11301</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G45" s="28"/>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="33"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="16">
         <v>11302</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="37"/>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" ht="22.5">
-      <c r="A47" s="33"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="16">
         <v>11303</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="28"/>
-      <c r="H47" s="37"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" ht="22.5">
-      <c r="A48" s="33"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="16">
         <v>11304</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G48" s="28"/>
-      <c r="H48" s="37"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" ht="23.25" thickBot="1">
       <c r="A49" s="23">
         <v>114</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C49" s="24">
         <v>11401</v>
       </c>
       <c r="D49" s="25" t="s">
+        <v>953</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>954</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>968</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>955</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="13" t="s">
@@ -14743,6 +14744,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H6:H16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H30:H34"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="H45:H48"/>
@@ -14752,26 +14773,6 @@
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="H41:H44"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H6:H16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -3959,13 +3959,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3976,21 +3991,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13702,7 +13702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -13743,10 +13743,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="39">
+      <c r="A2" s="32">
         <v>101</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="34" t="s">
         <v>956</v>
       </c>
       <c r="C2" s="14">
@@ -13764,13 +13764,13 @@
       <c r="G2" s="27" t="s">
         <v>968</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="36" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="16">
         <v>10102</v>
       </c>
@@ -13786,11 +13786,11 @@
       <c r="G3" s="28" t="s">
         <v>997</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="22.5">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="16">
         <v>10103</v>
       </c>
@@ -13806,11 +13806,11 @@
       <c r="G4" s="28" t="s">
         <v>971</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="16">
         <v>10104</v>
       </c>
@@ -13826,13 +13826,13 @@
       <c r="G5" s="28" t="s">
         <v>972</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="32">
+      <c r="A6" s="33">
         <v>102</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>842</v>
       </c>
       <c r="C6" s="16">
@@ -13850,13 +13850,13 @@
       <c r="G6" s="28" t="s">
         <v>995</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="38" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="16">
         <v>10202</v>
       </c>
@@ -13872,11 +13872,11 @@
       <c r="G7" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="H7" s="42"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="22.5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="16">
         <v>10203</v>
       </c>
@@ -13892,11 +13892,11 @@
       <c r="G8" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="H8" s="42"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="16">
         <v>10204</v>
       </c>
@@ -13912,13 +13912,13 @@
       <c r="G9" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>103</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="35" t="s">
         <v>854</v>
       </c>
       <c r="C10" s="16">
@@ -13934,11 +13934,11 @@
         <v>855</v>
       </c>
       <c r="G10" s="28"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" ht="22.5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="16">
         <v>10302</v>
       </c>
@@ -13952,11 +13952,11 @@
         <v>858</v>
       </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="42"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="16">
         <v>10303</v>
       </c>
@@ -13970,11 +13970,11 @@
         <v>860</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="42"/>
+      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" ht="33.75">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="16">
         <v>10304</v>
       </c>
@@ -13990,11 +13990,11 @@
       <c r="G13" s="28" t="s">
         <v>973</v>
       </c>
-      <c r="H13" s="42"/>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="16">
         <v>10305</v>
       </c>
@@ -14010,11 +14010,11 @@
       <c r="G14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="42"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="22.5">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="16">
         <v>10306</v>
       </c>
@@ -14030,11 +14030,11 @@
       <c r="G15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="42"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="16">
         <v>10307</v>
       </c>
@@ -14050,13 +14050,13 @@
       <c r="G16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="42"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>104</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="35" t="s">
         <v>868</v>
       </c>
       <c r="C17" s="16">
@@ -14074,13 +14074,13 @@
       <c r="G17" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="37" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="16">
         <v>10402</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>874</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="H18" s="34"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="18">
@@ -14116,13 +14116,13 @@
         <v>877</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="34"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="32">
+      <c r="A20" s="33">
         <v>106</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="35" t="s">
         <v>879</v>
       </c>
       <c r="C20" s="16">
@@ -14140,13 +14140,13 @@
       <c r="G20" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="39" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="16">
         <v>10602</v>
       </c>
@@ -14162,11 +14162,11 @@
       <c r="G21" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" ht="22.5">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="16">
         <v>10603</v>
       </c>
@@ -14182,11 +14182,11 @@
       <c r="G22" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" ht="22.5">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="16">
         <v>10604</v>
       </c>
@@ -14202,11 +14202,11 @@
       <c r="G23" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="1:8" ht="22.5">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="16">
         <v>10605</v>
       </c>
@@ -14222,11 +14222,11 @@
       <c r="G24" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:8" ht="22.5">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="16">
         <v>10606</v>
       </c>
@@ -14240,13 +14240,13 @@
         <v>897</v>
       </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="38"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:8" ht="33.75">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>107</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="35" t="s">
         <v>998</v>
       </c>
       <c r="C26" s="16">
@@ -14264,13 +14264,13 @@
       <c r="G26" s="28" t="s">
         <v>996</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="37" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="16">
         <v>10702</v>
       </c>
@@ -14286,11 +14286,11 @@
       <c r="G27" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="33.75">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="16">
         <v>10703</v>
       </c>
@@ -14306,11 +14306,11 @@
       <c r="G28" s="17" t="s">
         <v>992</v>
       </c>
-      <c r="H28" s="34"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="33.75">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="16">
         <v>10704</v>
       </c>
@@ -14326,13 +14326,13 @@
       <c r="G29" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="32">
+      <c r="A30" s="33">
         <v>108</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="35" t="s">
         <v>907</v>
       </c>
       <c r="C30" s="16">
@@ -14350,13 +14350,13 @@
       <c r="G30" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="39" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.5">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="16">
         <v>10802</v>
       </c>
@@ -14372,11 +14372,11 @@
       <c r="G31" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="H31" s="38"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="22.5">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="16">
         <v>10803</v>
       </c>
@@ -14392,11 +14392,11 @@
       <c r="G32" s="28" t="s">
         <v>982</v>
       </c>
-      <c r="H32" s="38"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="16">
         <v>10804</v>
       </c>
@@ -14412,11 +14412,11 @@
       <c r="G33" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="16">
         <v>10805</v>
       </c>
@@ -14432,7 +14432,7 @@
       <c r="G34" s="28" t="s">
         <v>983</v>
       </c>
-      <c r="H34" s="38"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="21">
@@ -14459,10 +14459,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5">
-      <c r="A36" s="32">
+      <c r="A36" s="33">
         <v>110</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="35" t="s">
         <v>918</v>
       </c>
       <c r="C36" s="16">
@@ -14480,13 +14480,13 @@
       <c r="G36" s="31" t="s">
         <v>988</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="37" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="16">
         <v>11002</v>
       </c>
@@ -14502,11 +14502,11 @@
       <c r="G37" s="28" t="s">
         <v>994</v>
       </c>
-      <c r="H37" s="34"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="16">
         <v>11003</v>
       </c>
@@ -14520,11 +14520,11 @@
         <v>962</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="34"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="16">
         <v>11004</v>
       </c>
@@ -14540,7 +14540,7 @@
       <c r="G39" s="28" t="s">
         <v>993</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="21">
@@ -14567,10 +14567,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5">
-      <c r="A41" s="35">
+      <c r="A41" s="40">
         <v>112</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="41" t="s">
         <v>927</v>
       </c>
       <c r="C41" s="19">
@@ -14586,13 +14586,13 @@
         <v>929</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="42" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5">
-      <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="19">
         <v>11202</v>
       </c>
@@ -14606,11 +14606,11 @@
         <v>933</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="37"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="19">
         <v>11203</v>
       </c>
@@ -14624,11 +14624,11 @@
         <v>936</v>
       </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="37"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="22.5">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="19">
         <v>11204</v>
       </c>
@@ -14642,13 +14642,13 @@
         <v>939</v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="37"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" ht="22.5">
-      <c r="A45" s="32">
+      <c r="A45" s="33">
         <v>113</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="35" t="s">
         <v>941</v>
       </c>
       <c r="C45" s="16">
@@ -14664,13 +14664,13 @@
         <v>942</v>
       </c>
       <c r="G45" s="28"/>
-      <c r="H45" s="34" t="s">
+      <c r="H45" s="37" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="16">
         <v>11302</v>
       </c>
@@ -14682,11 +14682,11 @@
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="34"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" ht="22.5">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="16">
         <v>11303</v>
       </c>
@@ -14698,11 +14698,11 @@
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="28"/>
-      <c r="H47" s="34"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:8" ht="22.5">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="16">
         <v>11304</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>946</v>
       </c>
       <c r="G48" s="28"/>
-      <c r="H48" s="34"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" spans="1:8" ht="23.25" thickBot="1">
       <c r="A49" s="23">
@@ -14744,26 +14744,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H6:H16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="H30:H34"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="H45:H48"/>
@@ -14773,6 +14753,26 @@
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="H41:H44"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H6:H16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -3959,28 +3959,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3991,6 +3976,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13703,7 +13703,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13743,10 +13743,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="32">
+      <c r="A2" s="39">
         <v>101</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="40" t="s">
         <v>956</v>
       </c>
       <c r="C2" s="14">
@@ -13764,13 +13764,13 @@
       <c r="G2" s="27" t="s">
         <v>968</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="41" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="16">
         <v>10102</v>
       </c>
@@ -13786,11 +13786,11 @@
       <c r="G3" s="28" t="s">
         <v>997</v>
       </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="22.5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="16">
         <v>10103</v>
       </c>
@@ -13806,11 +13806,11 @@
       <c r="G4" s="28" t="s">
         <v>971</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="33"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="16">
         <v>10104</v>
       </c>
@@ -13826,13 +13826,13 @@
       <c r="G5" s="28" t="s">
         <v>972</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="67.5">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>102</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>842</v>
       </c>
       <c r="C6" s="16">
@@ -13850,13 +13850,13 @@
       <c r="G6" s="28" t="s">
         <v>995</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="42" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="16">
         <v>10202</v>
       </c>
@@ -13872,11 +13872,11 @@
       <c r="G7" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:8" ht="22.5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="16">
         <v>10203</v>
       </c>
@@ -13892,11 +13892,11 @@
       <c r="G8" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="16">
         <v>10204</v>
       </c>
@@ -13912,13 +13912,13 @@
       <c r="G9" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>103</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>854</v>
       </c>
       <c r="C10" s="16">
@@ -13934,11 +13934,11 @@
         <v>855</v>
       </c>
       <c r="G10" s="28"/>
-      <c r="H10" s="38"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="22.5">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="16">
         <v>10302</v>
       </c>
@@ -13952,11 +13952,11 @@
         <v>858</v>
       </c>
       <c r="G11" s="28"/>
-      <c r="H11" s="38"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="16">
         <v>10303</v>
       </c>
@@ -13970,11 +13970,11 @@
         <v>860</v>
       </c>
       <c r="G12" s="28"/>
-      <c r="H12" s="38"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="33.75">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="16">
         <v>10304</v>
       </c>
@@ -13990,11 +13990,11 @@
       <c r="G13" s="28" t="s">
         <v>973</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="16">
         <v>10305</v>
       </c>
@@ -14010,11 +14010,11 @@
       <c r="G14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="22.5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="16">
         <v>10306</v>
       </c>
@@ -14030,11 +14030,11 @@
       <c r="G15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="33"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="16">
         <v>10307</v>
       </c>
@@ -14050,13 +14050,13 @@
       <c r="G16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>104</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>868</v>
       </c>
       <c r="C17" s="16">
@@ -14074,13 +14074,13 @@
       <c r="G17" s="17" t="s">
         <v>872</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="16">
         <v>10402</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>874</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="H18" s="37"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="18">
@@ -14116,13 +14116,13 @@
         <v>877</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="37"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>106</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>879</v>
       </c>
       <c r="C20" s="16">
@@ -14140,13 +14140,13 @@
       <c r="G20" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="38" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="16">
         <v>10602</v>
       </c>
@@ -14162,11 +14162,11 @@
       <c r="G21" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H21" s="39"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="22.5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="16">
         <v>10603</v>
       </c>
@@ -14182,11 +14182,11 @@
       <c r="G22" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="22.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="16">
         <v>10604</v>
       </c>
@@ -14202,11 +14202,11 @@
       <c r="G23" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="22.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="35"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="16">
         <v>10605</v>
       </c>
@@ -14222,11 +14222,11 @@
       <c r="G24" s="28" t="s">
         <v>989</v>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="1:8" ht="22.5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="35"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="16">
         <v>10606</v>
       </c>
@@ -14240,13 +14240,13 @@
         <v>897</v>
       </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="33.75">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>107</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="33" t="s">
         <v>998</v>
       </c>
       <c r="C26" s="16">
@@ -14264,13 +14264,13 @@
       <c r="G26" s="28" t="s">
         <v>996</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="16">
         <v>10702</v>
       </c>
@@ -14286,11 +14286,11 @@
       <c r="G27" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="H27" s="37"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="33.75">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="16">
         <v>10703</v>
       </c>
@@ -14306,11 +14306,11 @@
       <c r="G28" s="17" t="s">
         <v>992</v>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" ht="33.75">
-      <c r="A29" s="33"/>
-      <c r="B29" s="35"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="16">
         <v>10704</v>
       </c>
@@ -14326,13 +14326,13 @@
       <c r="G29" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>108</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>907</v>
       </c>
       <c r="C30" s="16">
@@ -14350,13 +14350,13 @@
       <c r="G30" s="29" t="s">
         <v>980</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="38" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="35"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="16">
         <v>10802</v>
       </c>
@@ -14372,11 +14372,11 @@
       <c r="G31" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="22.5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="16">
         <v>10803</v>
       </c>
@@ -14392,11 +14392,11 @@
       <c r="G32" s="28" t="s">
         <v>982</v>
       </c>
-      <c r="H32" s="39"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="33"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="16">
         <v>10804</v>
       </c>
@@ -14412,11 +14412,11 @@
       <c r="G33" s="28" t="s">
         <v>987</v>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="35"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="16">
         <v>10805</v>
       </c>
@@ -14432,7 +14432,7 @@
       <c r="G34" s="28" t="s">
         <v>983</v>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="21">
@@ -14459,10 +14459,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>110</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="33" t="s">
         <v>918</v>
       </c>
       <c r="C36" s="16">
@@ -14480,13 +14480,13 @@
       <c r="G36" s="31" t="s">
         <v>988</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="33"/>
-      <c r="B37" s="35"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="16">
         <v>11002</v>
       </c>
@@ -14502,11 +14502,11 @@
       <c r="G37" s="28" t="s">
         <v>994</v>
       </c>
-      <c r="H37" s="37"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="33"/>
-      <c r="B38" s="35"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="16">
         <v>11003</v>
       </c>
@@ -14520,11 +14520,11 @@
         <v>962</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="37"/>
+      <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="33"/>
-      <c r="B39" s="35"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="16">
         <v>11004</v>
       </c>
@@ -14540,7 +14540,7 @@
       <c r="G39" s="28" t="s">
         <v>993</v>
       </c>
-      <c r="H39" s="37"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="21">
@@ -14567,10 +14567,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5">
-      <c r="A41" s="40">
+      <c r="A41" s="35">
         <v>112</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="36" t="s">
         <v>927</v>
       </c>
       <c r="C41" s="19">
@@ -14586,13 +14586,13 @@
         <v>929</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="42" t="s">
+      <c r="H41" s="37" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="19">
         <v>11202</v>
       </c>
@@ -14606,11 +14606,11 @@
         <v>933</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="42"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="40"/>
-      <c r="B43" s="41"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="19">
         <v>11203</v>
       </c>
@@ -14624,11 +14624,11 @@
         <v>936</v>
       </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="42"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="22.5">
-      <c r="A44" s="40"/>
-      <c r="B44" s="41"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="19">
         <v>11204</v>
       </c>
@@ -14642,13 +14642,13 @@
         <v>939</v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="42"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:8" ht="22.5">
-      <c r="A45" s="33">
+      <c r="A45" s="32">
         <v>113</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="33" t="s">
         <v>941</v>
       </c>
       <c r="C45" s="16">
@@ -14664,13 +14664,13 @@
         <v>942</v>
       </c>
       <c r="G45" s="28"/>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="34" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="33"/>
-      <c r="B46" s="35"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="16">
         <v>11302</v>
       </c>
@@ -14682,11 +14682,11 @@
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="37"/>
+      <c r="H46" s="34"/>
     </row>
     <row r="47" spans="1:8" ht="22.5">
-      <c r="A47" s="33"/>
-      <c r="B47" s="35"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="16">
         <v>11303</v>
       </c>
@@ -14698,11 +14698,11 @@
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="28"/>
-      <c r="H47" s="37"/>
+      <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" ht="22.5">
-      <c r="A48" s="33"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="16">
         <v>11304</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>946</v>
       </c>
       <c r="G48" s="28"/>
-      <c r="H48" s="37"/>
+      <c r="H48" s="34"/>
     </row>
     <row r="49" spans="1:8" ht="23.25" thickBot="1">
       <c r="A49" s="23">
@@ -14744,6 +14744,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H6:H16"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="H30:H34"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="H45:H48"/>
@@ -14753,26 +14773,6 @@
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="H41:H44"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="H30:H34"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="H6:H16"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1002">
   <si>
     <t>保单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3145,12 +3145,6 @@
   </si>
   <si>
     <t>设置员工信息</t>
-  </si>
-  <si>
-    <t>UserManager</t>
-  </si>
-  <si>
-    <t>RoleManager</t>
   </si>
   <si>
     <t>组织机构</t>
@@ -3513,6 +3507,24 @@
   </si>
   <si>
     <t>产品设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t>PolicyNO</t>
+  </si>
+  <si>
+    <t>共保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4286,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J127"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1"/>
@@ -4320,7 +4332,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="2" spans="1:10" outlineLevel="1">
+    <row r="2" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="3" spans="1:10" outlineLevel="1">
+    <row r="3" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
@@ -4354,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" outlineLevel="1">
+    <row r="4" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:10" outlineLevel="1">
+    <row r="5" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
@@ -4388,7 +4400,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:10" outlineLevel="1">
+    <row r="6" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
@@ -4408,7 +4420,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:10" outlineLevel="1">
+    <row r="7" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
@@ -4425,7 +4437,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:10" outlineLevel="1">
+    <row r="8" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
@@ -4442,7 +4454,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" outlineLevel="1">
+    <row r="9" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
@@ -4459,7 +4471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:10" outlineLevel="1">
+    <row r="10" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
@@ -4476,7 +4488,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:10" outlineLevel="1">
+    <row r="11" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -4496,7 +4508,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="12" spans="1:10" outlineLevel="1">
+    <row r="12" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
@@ -4516,7 +4528,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="1:10" outlineLevel="1">
+    <row r="13" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
@@ -4536,7 +4548,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="14" spans="1:10" outlineLevel="1">
+    <row r="14" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="15" spans="1:10" outlineLevel="1">
+    <row r="15" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:10" outlineLevel="1">
+    <row r="16" spans="1:10" hidden="1" outlineLevel="1">
       <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4590,7 +4602,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:7" outlineLevel="1">
+    <row r="17" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
@@ -4607,7 +4619,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="2:7" outlineLevel="1">
+    <row r="18" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
@@ -4627,7 +4639,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="19" spans="2:7" outlineLevel="1">
+    <row r="19" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:7" outlineLevel="1">
+    <row r="20" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B20" s="1" t="s">
         <v>71</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="2:7" outlineLevel="1">
+    <row r="21" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
@@ -4678,7 +4690,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="2:7" outlineLevel="1">
+    <row r="22" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
@@ -4692,7 +4704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" outlineLevel="1">
+    <row r="23" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -4709,7 +4721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:7" outlineLevel="1">
+    <row r="24" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B24" s="1" t="s">
         <v>709</v>
       </c>
@@ -4726,7 +4738,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:7" outlineLevel="1">
+    <row r="25" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
@@ -4743,7 +4755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:7" outlineLevel="1">
+    <row r="26" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,7 +4775,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="27" spans="2:7" outlineLevel="1">
+    <row r="27" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
@@ -4783,7 +4795,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="28" spans="2:7" outlineLevel="1">
+    <row r="28" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
@@ -4803,7 +4815,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="29" spans="2:7" outlineLevel="1">
+    <row r="29" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B29" s="1" t="s">
         <v>80</v>
       </c>
@@ -4823,7 +4835,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="30" spans="2:7" outlineLevel="1">
+    <row r="30" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B30" s="1" t="s">
         <v>707</v>
       </c>
@@ -4840,7 +4852,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:7" outlineLevel="1">
+    <row r="31" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:7" outlineLevel="1">
+    <row r="32" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4874,7 +4886,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="33" spans="2:7" outlineLevel="1">
+    <row r="33" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B33" s="1" t="s">
         <v>84</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="34" spans="2:7" outlineLevel="1">
+    <row r="34" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
@@ -4908,7 +4920,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="35" spans="2:7" outlineLevel="1">
+    <row r="35" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="36" spans="2:7" outlineLevel="1">
+    <row r="36" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4942,7 +4954,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="37" spans="2:7" outlineLevel="1">
+    <row r="37" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="38" spans="2:7" outlineLevel="1">
+    <row r="38" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
@@ -4976,7 +4988,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="39" spans="2:7" outlineLevel="1">
+    <row r="39" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="40" spans="2:7" outlineLevel="1">
+    <row r="40" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
@@ -5010,7 +5022,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="41" spans="2:7" outlineLevel="1">
+    <row r="41" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="2:7" outlineLevel="1">
+    <row r="42" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="2:7" outlineLevel="1">
+    <row r="43" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
@@ -5067,7 +5079,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="2:7" outlineLevel="1">
+    <row r="44" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B44" s="1" t="s">
         <v>96</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" outlineLevel="1">
+    <row r="45" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:7" outlineLevel="1">
+    <row r="46" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B46" s="1" t="s">
         <v>98</v>
       </c>
@@ -5115,7 +5127,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="47" spans="2:7" outlineLevel="1">
+    <row r="47" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B47" s="1" t="s">
         <v>99</v>
       </c>
@@ -5132,7 +5144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="2:7" outlineLevel="1">
+    <row r="48" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
@@ -5149,7 +5161,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="49" spans="2:7" outlineLevel="1">
+    <row r="49" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B49" s="1" t="s">
         <v>157</v>
       </c>
@@ -5166,7 +5178,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="50" spans="2:7" outlineLevel="1">
+    <row r="50" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="2:7" outlineLevel="1">
+    <row r="51" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
@@ -5200,7 +5212,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="2:7" outlineLevel="1">
+    <row r="52" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
@@ -5217,7 +5229,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="53" spans="2:7" outlineLevel="1">
+    <row r="53" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
@@ -5234,7 +5246,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="2:7" outlineLevel="1">
+    <row r="54" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:7" outlineLevel="1">
+    <row r="55" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
@@ -5268,7 +5280,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="2:7" outlineLevel="1">
+    <row r="56" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B56" s="1" t="s">
         <v>106</v>
       </c>
@@ -5285,7 +5297,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="2:7" outlineLevel="1">
+    <row r="57" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="2:7" outlineLevel="1">
+    <row r="58" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B58" s="1" t="s">
         <v>108</v>
       </c>
@@ -5319,7 +5331,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="2:7" outlineLevel="1">
+    <row r="59" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B59" s="1" t="s">
         <v>109</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="2:7" outlineLevel="1">
+    <row r="60" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B60" s="1" t="s">
         <v>110</v>
       </c>
@@ -5356,7 +5368,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="2:7" outlineLevel="1">
+    <row r="61" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B61" s="1" t="s">
         <v>163</v>
       </c>
@@ -5376,7 +5388,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="2:7" outlineLevel="1">
+    <row r="62" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B62" s="1" t="s">
         <v>162</v>
       </c>
@@ -5393,7 +5405,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="2:7" outlineLevel="1">
+    <row r="63" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B63" s="1" t="s">
         <v>111</v>
       </c>
@@ -5410,7 +5422,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="2:7" outlineLevel="1">
+    <row r="64" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B64" s="1" t="s">
         <v>112</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:7" outlineLevel="1">
+    <row r="65" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B65" s="1" t="s">
         <v>160</v>
       </c>
@@ -5444,7 +5456,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="2:7" outlineLevel="1">
+    <row r="66" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B66" s="1" t="s">
         <v>158</v>
       </c>
@@ -5461,7 +5473,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="2:7" outlineLevel="1">
+    <row r="67" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
@@ -5478,7 +5490,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:7" outlineLevel="1">
+    <row r="68" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B68" s="1" t="s">
         <v>114</v>
       </c>
@@ -5492,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:7" outlineLevel="1">
+    <row r="69" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B69" s="1" t="s">
         <v>164</v>
       </c>
@@ -5509,7 +5521,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="2:7" outlineLevel="1">
+    <row r="70" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B70" s="1" t="s">
         <v>115</v>
       </c>
@@ -5523,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" outlineLevel="1">
+    <row r="71" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B71" s="1" t="s">
         <v>166</v>
       </c>
@@ -5537,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" outlineLevel="1">
+    <row r="72" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B72" s="1" t="s">
         <v>167</v>
       </c>
@@ -5551,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" outlineLevel="1">
+    <row r="73" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B73" s="1" t="s">
         <v>116</v>
       </c>
@@ -5565,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:7" outlineLevel="1">
+    <row r="74" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B74" s="1" t="s">
         <v>117</v>
       </c>
@@ -5579,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:7" outlineLevel="1">
+    <row r="75" spans="2:7" hidden="1" outlineLevel="1">
       <c r="B75" s="1" t="s">
         <v>118</v>
       </c>
@@ -5596,7 +5608,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="76" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B76" s="3" t="s">
         <v>708</v>
       </c>
@@ -5613,7 +5625,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="77" spans="2:7" s="4" customFormat="1" outlineLevel="1">
+    <row r="77" spans="2:7" s="4" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B77" s="4" t="s">
         <v>673</v>
       </c>
@@ -5633,7 +5645,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="78" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B78" s="4" t="s">
         <v>677</v>
       </c>
@@ -5650,7 +5662,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="79" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B79" s="4" t="s">
         <v>711</v>
       </c>
@@ -5664,7 +5676,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="80" spans="2:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="80" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B80" s="4" t="s">
         <v>713</v>
       </c>
@@ -5678,7 +5690,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="81" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B81" s="4" t="s">
         <v>714</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="82" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B82" s="4" t="s">
         <v>712</v>
       </c>
@@ -5706,7 +5718,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="83" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B83" s="4" t="s">
         <v>715</v>
       </c>
@@ -5720,7 +5732,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="84" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B84" s="4" t="s">
         <v>716</v>
       </c>
@@ -5734,7 +5746,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="85" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B85" s="4" t="s">
         <v>710</v>
       </c>
@@ -5748,7 +5760,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="86" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B86" s="4" t="s">
         <v>717</v>
       </c>
@@ -5762,7 +5774,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" outlineLevel="1">
+    <row r="87" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
       <c r="B87" s="4" t="s">
         <v>718</v>
       </c>
@@ -5776,14 +5788,14 @@
         <v>704</v>
       </c>
     </row>
-    <row r="88" spans="1:7" outlineLevel="1">
+    <row r="88" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" collapsed="1">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -5791,7 +5803,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="90" spans="1:7" outlineLevel="1">
+    <row r="90" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B90" s="1" t="s">
         <v>2</v>
       </c>
@@ -5808,7 +5820,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="91" spans="1:7" outlineLevel="1">
+    <row r="91" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
@@ -5825,7 +5837,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="92" spans="1:7" outlineLevel="1">
+    <row r="92" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
@@ -5842,7 +5854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:7" outlineLevel="1">
+    <row r="93" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
@@ -5859,7 +5871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:7" outlineLevel="1">
+    <row r="94" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
@@ -5876,7 +5888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:7" outlineLevel="1">
+    <row r="95" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B95" s="1" t="s">
         <v>9</v>
       </c>
@@ -5893,7 +5905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:7" outlineLevel="1">
+    <row r="96" spans="1:7" hidden="1" outlineLevel="1">
       <c r="B96" s="1" t="s">
         <v>11</v>
       </c>
@@ -5910,7 +5922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:6" outlineLevel="1">
+    <row r="97" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B97" s="1" t="s">
         <v>12</v>
       </c>
@@ -5927,7 +5939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:6" outlineLevel="1">
+    <row r="98" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B98" s="1" t="s">
         <v>13</v>
       </c>
@@ -5944,7 +5956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" collapsed="1">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -5952,7 +5964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" outlineLevel="1">
+    <row r="100" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B100" s="1" t="s">
         <v>26</v>
       </c>
@@ -5969,7 +5981,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="101" spans="1:6" outlineLevel="1">
+    <row r="101" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B101" s="1" t="s">
         <v>27</v>
       </c>
@@ -5986,7 +5998,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="102" spans="1:6" outlineLevel="1">
+    <row r="102" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B102" s="1" t="s">
         <v>28</v>
       </c>
@@ -6003,7 +6015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:6" outlineLevel="1">
+    <row r="103" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B103" s="1" t="s">
         <v>29</v>
       </c>
@@ -6020,7 +6032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:6" outlineLevel="1">
+    <row r="104" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B104" s="1" t="s">
         <v>31</v>
       </c>
@@ -6037,7 +6049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:6" outlineLevel="1">
+    <row r="105" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B105" s="1" t="s">
         <v>32</v>
       </c>
@@ -6054,7 +6066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:6" outlineLevel="1">
+    <row r="106" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B106" s="1" t="s">
         <v>33</v>
       </c>
@@ -6071,7 +6083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:6" outlineLevel="1">
+    <row r="107" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B107" s="1" t="s">
         <v>34</v>
       </c>
@@ -6088,7 +6100,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="108" spans="1:6" outlineLevel="1">
+    <row r="108" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B108" s="1" t="s">
         <v>35</v>
       </c>
@@ -6105,7 +6117,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="109" spans="1:6" outlineLevel="1">
+    <row r="109" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B109" s="1" t="s">
         <v>36</v>
       </c>
@@ -6122,7 +6134,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="110" spans="1:6" outlineLevel="1">
+    <row r="110" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B110" s="1" t="s">
         <v>37</v>
       </c>
@@ -6139,7 +6151,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="111" spans="1:6" outlineLevel="1">
+    <row r="111" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B111" s="1" t="s">
         <v>38</v>
       </c>
@@ -6153,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" outlineLevel="1">
+    <row r="112" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B112" s="1" t="s">
         <v>40</v>
       </c>
@@ -6170,7 +6182,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="113" spans="1:6" outlineLevel="1">
+    <row r="113" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B113" s="1" t="s">
         <v>41</v>
       </c>
@@ -6184,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" outlineLevel="1">
+    <row r="114" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B114" s="1" t="s">
         <v>43</v>
       </c>
@@ -6198,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" outlineLevel="1">
+    <row r="115" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B115" s="1" t="s">
         <v>44</v>
       </c>
@@ -6212,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" outlineLevel="1">
+    <row r="116" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B116" s="1" t="s">
         <v>45</v>
       </c>
@@ -6229,7 +6241,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="117" spans="1:6" outlineLevel="1">
+    <row r="117" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B117" s="1" t="s">
         <v>47</v>
       </c>
@@ -6243,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" collapsed="1">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -6251,7 +6263,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="119" spans="1:6" outlineLevel="1">
+    <row r="119" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B119" s="1" t="s">
         <v>2</v>
       </c>
@@ -6268,7 +6280,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="120" spans="1:6" outlineLevel="1">
+    <row r="120" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B120" s="1" t="s">
         <v>423</v>
       </c>
@@ -6285,7 +6297,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:6" outlineLevel="1">
+    <row r="121" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B121" s="1" t="s">
         <v>451</v>
       </c>
@@ -6302,7 +6314,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:6" outlineLevel="1">
+    <row r="122" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B122" s="1" t="s">
         <v>504</v>
       </c>
@@ -6319,7 +6331,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="123" spans="1:6" outlineLevel="1">
+    <row r="123" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B123" s="1" t="s">
         <v>505</v>
       </c>
@@ -6333,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" outlineLevel="1">
+    <row r="124" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B124" s="1" t="s">
         <v>506</v>
       </c>
@@ -6347,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" outlineLevel="1">
+    <row r="125" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B125" s="1" t="s">
         <v>458</v>
       </c>
@@ -6364,7 +6376,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="126" spans="1:6" outlineLevel="1">
+    <row r="126" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B126" s="1" t="s">
         <v>459</v>
       </c>
@@ -6381,12 +6393,104 @@
         <v>653</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" collapsed="1">
       <c r="A127" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="B132" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="1">
+        <v>36</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="B133" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133" s="1">
+        <v>36</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="B134" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D134" s="1">
+        <v>36</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="B135" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="1">
+        <v>50</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" s="1">
+        <v>9</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="B137" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137" s="1">
+        <v>36</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13702,8 +13806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13724,7 +13828,7 @@
         <v>827</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>828</v>
@@ -13736,7 +13840,7 @@
         <v>829</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>830</v>
@@ -13747,7 +13851,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C2" s="14">
         <v>10101</v>
@@ -13762,7 +13866,7 @@
         <v>833</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>834</v>
@@ -13778,13 +13882,13 @@
         <v>835</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>836</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H3" s="34"/>
     </row>
@@ -13798,13 +13902,13 @@
         <v>837</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>838</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -13824,7 +13928,7 @@
         <v>840</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H5" s="34"/>
     </row>
@@ -13848,7 +13952,7 @@
         <v>844</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>845</v>
@@ -13870,7 +13974,7 @@
         <v>848</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H7" s="42"/>
     </row>
@@ -13890,7 +13994,7 @@
         <v>850</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H8" s="42"/>
     </row>
@@ -13910,7 +14014,7 @@
         <v>852</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H9" s="42"/>
     </row>
@@ -13988,7 +14092,7 @@
         <v>843</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H13" s="42"/>
     </row>
@@ -14138,7 +14242,7 @@
         <v>881</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>882</v>
@@ -14160,7 +14264,7 @@
         <v>885</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H21" s="38"/>
     </row>
@@ -14180,7 +14284,7 @@
         <v>888</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H22" s="38"/>
     </row>
@@ -14200,7 +14304,7 @@
         <v>891</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H23" s="38"/>
     </row>
@@ -14220,7 +14324,7 @@
         <v>894</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H24" s="38"/>
     </row>
@@ -14247,7 +14351,7 @@
         <v>107</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C26" s="16">
         <v>10701</v>
@@ -14262,7 +14366,7 @@
         <v>900</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>871</v>
@@ -14278,7 +14382,7 @@
         <v>901</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>902</v>
@@ -14304,7 +14408,7 @@
         <v>904</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H28" s="34"/>
     </row>
@@ -14324,7 +14428,7 @@
         <v>906</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H29" s="34"/>
     </row>
@@ -14342,13 +14446,13 @@
         <v>908</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>910</v>
+        <v>1000</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>909</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>882</v>
@@ -14361,16 +14465,16 @@
         <v>10802</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>911</v>
+        <v>1001</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H31" s="38"/>
     </row>
@@ -14381,16 +14485,16 @@
         <v>10803</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>978</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>979</v>
-      </c>
       <c r="G32" s="28" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H32" s="38"/>
     </row>
@@ -14401,16 +14505,16 @@
         <v>10804</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>984</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="G33" s="28" t="s">
         <v>985</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>986</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>987</v>
       </c>
       <c r="H33" s="38"/>
     </row>
@@ -14421,16 +14525,16 @@
         <v>10805</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H34" s="38"/>
     </row>
@@ -14439,19 +14543,19 @@
         <v>109</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C35" s="16">
         <v>10901</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>915</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>917</v>
-      </c>
       <c r="F35" s="17" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="11" t="s">
@@ -14463,22 +14567,22 @@
         <v>110</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C36" s="16">
         <v>11001</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>871</v>
@@ -14491,16 +14595,16 @@
         <v>11002</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>922</v>
-      </c>
       <c r="F37" s="17" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -14511,13 +14615,13 @@
         <v>11003</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="34"/>
@@ -14529,16 +14633,16 @@
         <v>11004</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="E39" s="17" t="s">
         <v>924</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>926</v>
-      </c>
       <c r="F39" s="17" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H39" s="34"/>
     </row>
@@ -14547,19 +14651,19 @@
         <v>111</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C40" s="16">
         <v>11101</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="E40" s="17" t="s">
         <v>949</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>951</v>
-      </c>
       <c r="F40" s="17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="12" t="s">
@@ -14571,23 +14675,23 @@
         <v>112</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C41" s="19">
         <v>11201</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="37" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5">
@@ -14597,13 +14701,13 @@
         <v>11202</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>932</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>934</v>
-      </c>
       <c r="F42" s="17" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="37"/>
@@ -14615,13 +14719,13 @@
         <v>11203</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>935</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>937</v>
-      </c>
       <c r="F43" s="17" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="37"/>
@@ -14633,13 +14737,13 @@
         <v>11204</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E44" s="17" t="s">
         <v>938</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>940</v>
-      </c>
       <c r="F44" s="17" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="37"/>
@@ -14649,19 +14753,19 @@
         <v>113</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C45" s="16">
         <v>11301</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="34" t="s">
@@ -14675,10 +14779,10 @@
         <v>11302</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="28"/>
@@ -14691,10 +14795,10 @@
         <v>11303</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="28"/>
@@ -14707,13 +14811,13 @@
         <v>11304</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="34"/>
@@ -14723,19 +14827,19 @@
         <v>114</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C49" s="24">
         <v>11401</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="13" t="s">

--- a/SHEIB/Docs/系统设计/数据库结构.xlsx
+++ b/SHEIB/Docs/系统设计/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="保单" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="1013">
   <si>
     <t>保单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,10 +506,6 @@
   </si>
   <si>
     <t>再保险保单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保书编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3525,6 +3521,54 @@
   </si>
   <si>
     <t>RoleManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共保GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单GUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PremiumRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承保比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纪费率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纪费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4298,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="1"/>
@@ -4326,13 +4370,13 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" outlineLevel="1">
+    </row>
+    <row r="2" spans="1:10" outlineLevel="1">
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
@@ -4346,13 +4390,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" outlineLevel="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" outlineLevel="1">
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
@@ -4366,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:10" outlineLevel="1">
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -4380,10 +4424,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" outlineLevel="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" outlineLevel="1">
       <c r="B5" s="1" t="s">
         <v>56</v>
       </c>
@@ -4400,7 +4444,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:10" outlineLevel="1">
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
@@ -4414,13 +4458,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" outlineLevel="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" outlineLevel="1">
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
@@ -4437,7 +4481,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:10" outlineLevel="1">
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
@@ -4454,7 +4498,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:10" outlineLevel="1">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
@@ -4471,7 +4515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:10" outlineLevel="1">
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
@@ -4488,7 +4532,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:10" outlineLevel="1">
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -4502,13 +4546,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" outlineLevel="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" outlineLevel="1">
       <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
@@ -4522,13 +4566,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" outlineLevel="1">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" outlineLevel="1">
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
@@ -4542,13 +4586,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" outlineLevel="1">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" outlineLevel="1">
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
@@ -4562,13 +4606,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" outlineLevel="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" outlineLevel="1">
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
@@ -4585,7 +4629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:10" outlineLevel="1">
       <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4602,7 +4646,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="17" spans="2:7" outlineLevel="1">
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
@@ -4619,7 +4663,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="18" spans="2:7" outlineLevel="1">
       <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
@@ -4633,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" hidden="1" outlineLevel="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" outlineLevel="1">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4656,7 +4700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="20" spans="2:7" outlineLevel="1">
       <c r="B20" s="1" t="s">
         <v>71</v>
       </c>
@@ -4670,10 +4714,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1" outlineLevel="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" outlineLevel="1">
       <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
@@ -4687,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1" outlineLevel="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" outlineLevel="1">
       <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
@@ -4704,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="23" spans="2:7" outlineLevel="1">
       <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
@@ -4721,9 +4765,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="24" spans="2:7" outlineLevel="1">
       <c r="B24" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -4738,7 +4782,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="25" spans="2:7" outlineLevel="1">
       <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
@@ -4755,7 +4799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="26" spans="2:7" outlineLevel="1">
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
@@ -4769,13 +4813,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" hidden="1" outlineLevel="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" outlineLevel="1">
       <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
@@ -4789,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" hidden="1" outlineLevel="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" outlineLevel="1">
       <c r="B28" s="1" t="s">
         <v>79</v>
       </c>
@@ -4809,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" hidden="1" outlineLevel="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" outlineLevel="1">
       <c r="B29" s="1" t="s">
         <v>80</v>
       </c>
@@ -4829,15 +4873,15 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" hidden="1" outlineLevel="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" outlineLevel="1">
       <c r="B30" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>72</v>
@@ -4852,7 +4896,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="31" spans="2:7" outlineLevel="1">
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
@@ -4869,7 +4913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="32" spans="2:7" outlineLevel="1">
       <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
@@ -4883,10 +4927,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" outlineLevel="1">
       <c r="B33" s="1" t="s">
         <v>84</v>
       </c>
@@ -4900,10 +4944,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" outlineLevel="1">
       <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
@@ -4917,10 +4961,10 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" outlineLevel="1">
       <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4934,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" outlineLevel="1">
       <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4951,10 +4995,10 @@
         <v>1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" outlineLevel="1">
       <c r="B37" s="1" t="s">
         <v>88</v>
       </c>
@@ -4968,10 +5012,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" outlineLevel="1">
       <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
@@ -4985,10 +5029,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" outlineLevel="1">
       <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
@@ -5002,10 +5046,10 @@
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" outlineLevel="1">
       <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
@@ -5019,10 +5063,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" outlineLevel="1">
       <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
@@ -5036,10 +5080,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" hidden="1" outlineLevel="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" outlineLevel="1">
       <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
@@ -5053,13 +5097,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" hidden="1" outlineLevel="1">
+    </row>
+    <row r="43" spans="2:7" outlineLevel="1">
       <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
@@ -5073,13 +5117,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" hidden="1" outlineLevel="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" outlineLevel="1">
       <c r="B44" s="1" t="s">
         <v>96</v>
       </c>
@@ -5093,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="45" spans="2:7" outlineLevel="1">
       <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
@@ -5110,7 +5154,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="46" spans="2:7" outlineLevel="1">
       <c r="B46" s="1" t="s">
         <v>98</v>
       </c>
@@ -5124,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1" outlineLevel="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" outlineLevel="1">
       <c r="B47" s="1" t="s">
         <v>99</v>
       </c>
@@ -5144,7 +5188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="48" spans="2:7" outlineLevel="1">
       <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
@@ -5158,12 +5202,12 @@
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" outlineLevel="1">
       <c r="B49" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
@@ -5175,10 +5219,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" outlineLevel="1">
       <c r="B50" s="1" t="s">
         <v>100</v>
       </c>
@@ -5195,7 +5239,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="51" spans="2:7" outlineLevel="1">
       <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
@@ -5209,10 +5253,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" hidden="1" outlineLevel="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" outlineLevel="1">
       <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
@@ -5226,10 +5270,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" hidden="1" outlineLevel="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" outlineLevel="1">
       <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
@@ -5246,7 +5290,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="54" spans="2:7" outlineLevel="1">
       <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
@@ -5263,7 +5307,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="55" spans="2:7" outlineLevel="1">
       <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
@@ -5280,7 +5324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="56" spans="2:7" outlineLevel="1">
       <c r="B56" s="1" t="s">
         <v>106</v>
       </c>
@@ -5297,7 +5341,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="57" spans="2:7" outlineLevel="1">
       <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
@@ -5314,7 +5358,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="58" spans="2:7" outlineLevel="1">
       <c r="B58" s="1" t="s">
         <v>108</v>
       </c>
@@ -5331,7 +5375,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="59" spans="2:7" outlineLevel="1">
       <c r="B59" s="1" t="s">
         <v>109</v>
       </c>
@@ -5345,13 +5389,13 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" hidden="1" outlineLevel="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" outlineLevel="1">
       <c r="B60" s="1" t="s">
         <v>110</v>
       </c>
@@ -5368,9 +5412,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="61" spans="2:7" outlineLevel="1">
       <c r="B61" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>42</v>
@@ -5382,15 +5426,15 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" hidden="1" outlineLevel="1">
+    </row>
+    <row r="62" spans="2:7" outlineLevel="1">
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -5402,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" hidden="1" outlineLevel="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" outlineLevel="1">
       <c r="B63" s="1" t="s">
         <v>111</v>
       </c>
@@ -5419,10 +5463,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" hidden="1" outlineLevel="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" outlineLevel="1">
       <c r="B64" s="1" t="s">
         <v>112</v>
       </c>
@@ -5439,9 +5483,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="65" spans="2:7" outlineLevel="1">
       <c r="B65" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
@@ -5453,12 +5497,12 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" hidden="1" outlineLevel="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" outlineLevel="1">
       <c r="B66" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>69</v>
@@ -5470,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" hidden="1" outlineLevel="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" outlineLevel="1">
       <c r="B67" s="1" t="s">
         <v>113</v>
       </c>
@@ -5487,10 +5531,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" hidden="1" outlineLevel="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" outlineLevel="1">
       <c r="B68" s="1" t="s">
         <v>114</v>
       </c>
@@ -5504,9 +5548,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="69" spans="2:7" outlineLevel="1">
       <c r="B69" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>10</v>
@@ -5518,10 +5562,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" hidden="1" outlineLevel="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" outlineLevel="1">
       <c r="B70" s="1" t="s">
         <v>115</v>
       </c>
@@ -5535,9 +5579,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="71" spans="2:7" outlineLevel="1">
       <c r="B71" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>92</v>
@@ -5549,9 +5593,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="72" spans="2:7" outlineLevel="1">
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
@@ -5563,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="73" spans="2:7" outlineLevel="1">
       <c r="B73" s="1" t="s">
         <v>116</v>
       </c>
@@ -5577,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="74" spans="2:7" outlineLevel="1">
       <c r="B74" s="1" t="s">
         <v>117</v>
       </c>
@@ -5591,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" outlineLevel="1">
+    <row r="75" spans="2:7" outlineLevel="1">
       <c r="B75" s="1" t="s">
         <v>118</v>
       </c>
@@ -5608,9 +5652,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="76" spans="2:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B76" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>7</v>
@@ -5622,15 +5666,15 @@
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" s="4" customFormat="1" hidden="1" outlineLevel="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" s="4" customFormat="1" outlineLevel="1">
       <c r="B77" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="D77" s="4">
         <v>32</v>
@@ -5639,168 +5683,168 @@
         <v>1</v>
       </c>
       <c r="F77" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G77" s="4" t="s">
+    </row>
+    <row r="78" spans="2:7" s="3" customFormat="1" outlineLevel="1">
+      <c r="B78" s="4" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+    </row>
+    <row r="79" spans="2:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B79" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B80" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B81" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B82" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B83" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B84" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B85" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B86" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" hidden="1" outlineLevel="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" outlineLevel="1">
       <c r="B87" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" outlineLevel="1">
+    </row>
+    <row r="88" spans="1:7" outlineLevel="1">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:7" collapsed="1">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:7" hidden="1" outlineLevel="1">
@@ -5817,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:7" hidden="1" outlineLevel="1">
@@ -5834,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:7" hidden="1" outlineLevel="1">
@@ -5978,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1" outlineLevel="1">
@@ -5995,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:6" hidden="1" outlineLevel="1">
@@ -6097,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1" outlineLevel="1">
@@ -6114,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109" spans="1:6" hidden="1" outlineLevel="1">
@@ -6131,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" outlineLevel="1">
@@ -6148,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111" spans="1:6" hidden="1" outlineLevel="1">
@@ -6179,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" outlineLevel="1">
@@ -6238,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1" outlineLevel="1">
@@ -6260,7 +6304,7 @@
         <v>17</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:6" hidden="1" outlineLevel="1">
@@ -6277,12 +6321,12 @@
         <v>0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="120" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B120" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>14</v>
@@ -6294,12 +6338,12 @@
         <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B121" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>14</v>
@@ -6311,12 +6355,12 @@
         <v>0</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B122" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>10</v>
@@ -6328,12 +6372,12 @@
         <v>1</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B123" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>14</v>
@@ -6347,7 +6391,7 @@
     </row>
     <row r="124" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B124" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -6361,7 +6405,7 @@
     </row>
     <row r="125" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B125" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>42</v>
@@ -6373,12 +6417,12 @@
         <v>1</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="126" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B126" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>42</v>
@@ -6390,28 +6434,28 @@
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="127" spans="1:6" collapsed="1">
       <c r="A127" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="B132" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>46</v>
@@ -6422,8 +6466,11 @@
       <c r="E132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="B133" s="1" t="s">
         <v>53</v>
       </c>
@@ -6436,10 +6483,13 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="B134" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>46</v>
@@ -6450,10 +6500,13 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="B135" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>10</v>
@@ -6464,33 +6517,75 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="B136" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" s="1">
+        <v>36</v>
+      </c>
+      <c r="E136" s="1">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="B137" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137" s="1">
+        <v>9</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D138" s="1">
         <v>9</v>
       </c>
-      <c r="E136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="B137" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D137" s="1">
-        <v>36</v>
-      </c>
-      <c r="E137" s="1">
-        <v>1</v>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="B140" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -6527,7 +6622,7 @@
     </row>
     <row r="2" spans="1:6" outlineLevel="1">
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -6539,12 +6634,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:6" outlineLevel="1">
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -6556,12 +6651,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:6" outlineLevel="1">
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -6573,12 +6668,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:6" outlineLevel="1">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>30</v>
@@ -6590,12 +6685,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:6" outlineLevel="1">
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -6607,12 +6702,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:6" outlineLevel="1">
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -6624,12 +6719,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="1">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -6641,12 +6736,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:6" outlineLevel="1">
       <c r="B9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -6658,12 +6753,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:6" outlineLevel="1">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -6675,12 +6770,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:6" outlineLevel="1">
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -6692,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:6" outlineLevel="1">
@@ -6709,7 +6804,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" outlineLevel="1">
@@ -6726,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:6" outlineLevel="1">
@@ -6743,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:6" outlineLevel="1">
@@ -6819,12 +6914,12 @@
         <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:6" outlineLevel="1">
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -6836,12 +6931,12 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:6" outlineLevel="1">
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -6853,12 +6948,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:6" outlineLevel="1">
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>46</v>
@@ -6870,12 +6965,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:6" outlineLevel="1">
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
@@ -6887,12 +6982,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:6" outlineLevel="1">
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>30</v>
@@ -6904,12 +6999,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:6" outlineLevel="1">
       <c r="B25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
@@ -6921,12 +7016,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:6" outlineLevel="1">
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -6938,12 +7033,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:6" outlineLevel="1">
       <c r="B27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -6955,12 +7050,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="1">
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -6972,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="1">
@@ -6989,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:6" outlineLevel="1">
@@ -7006,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:6" outlineLevel="1">
@@ -7023,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:6" outlineLevel="1">
@@ -7040,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:6" outlineLevel="1">
@@ -7091,7 +7186,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:6" outlineLevel="1">
@@ -7113,7 +7208,7 @@
     </row>
     <row r="37" spans="1:6" outlineLevel="1">
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -7125,20 +7220,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6" outlineLevel="1">
       <c r="B39" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -7150,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:6" outlineLevel="1">
@@ -7167,12 +7262,12 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="B41" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>30</v>
@@ -7184,12 +7279,12 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:6" outlineLevel="1">
       <c r="B42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>83</v>
@@ -7201,20 +7296,20 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -7226,12 +7321,12 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="10.5" customHeight="1" outlineLevel="1">
       <c r="B45" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>46</v>
@@ -7243,7 +7338,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7282,10 +7377,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
         <v>183</v>
-      </c>
-      <c r="E8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="18" spans="6:6">
@@ -7326,15 +7421,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -7346,12 +7441,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -7368,7 +7463,7 @@
     </row>
     <row r="4" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -7380,12 +7475,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
@@ -7397,12 +7492,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -7414,12 +7509,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -7431,12 +7526,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -7448,12 +7543,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -7465,12 +7560,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -7482,12 +7577,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -7499,12 +7594,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -7516,12 +7611,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -7533,12 +7628,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -7550,12 +7645,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -7567,12 +7662,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -7586,7 +7681,7 @@
     </row>
     <row r="17" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -7600,7 +7695,7 @@
     </row>
     <row r="18" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B18" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>83</v>
@@ -7614,7 +7709,7 @@
     </row>
     <row r="19" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -7626,12 +7721,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -7643,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="2:6" hidden="1" outlineLevel="1">
@@ -7665,10 +7760,10 @@
     </row>
     <row r="22" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D22" s="1">
         <v>16</v>
@@ -7677,15 +7772,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D23" s="1">
         <v>16</v>
@@ -7694,12 +7789,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -7713,7 +7808,7 @@
     </row>
     <row r="25" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>83</v>
@@ -7725,12 +7820,12 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B26" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>10</v>
@@ -7742,12 +7837,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B27" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>39</v>
@@ -7761,7 +7856,7 @@
     </row>
     <row r="28" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>39</v>
@@ -7775,7 +7870,7 @@
     </row>
     <row r="29" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B29" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
@@ -7789,7 +7884,7 @@
     </row>
     <row r="30" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B30" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -7803,7 +7898,7 @@
     </row>
     <row r="31" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B31" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
@@ -7815,12 +7910,12 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B32" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -7832,12 +7927,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B33" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -7849,12 +7944,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B34" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -7866,12 +7961,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -7883,12 +7978,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -7900,12 +7995,12 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B37" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
@@ -7917,12 +8012,12 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
@@ -7934,12 +8029,12 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B39" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -7951,12 +8046,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B40" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -7968,12 +8063,12 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B41" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -7987,7 +8082,7 @@
     </row>
     <row r="42" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B42" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -7999,12 +8094,12 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B43" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -8018,7 +8113,7 @@
     </row>
     <row r="44" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B44" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -8030,12 +8125,12 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B45" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
@@ -8047,12 +8142,12 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B46" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -8064,12 +8159,12 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B47" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>10</v>
@@ -8081,12 +8176,12 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:6" hidden="1" outlineLevel="1">
       <c r="B48" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
@@ -8098,12 +8193,12 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B49" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>10</v>
@@ -8115,12 +8210,12 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B50" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>10</v>
@@ -8132,12 +8227,12 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B51" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>30</v>
@@ -8149,12 +8244,12 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B52" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -8166,20 +8261,20 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6" collapsed="1">
       <c r="A53" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B54" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
@@ -8191,12 +8286,12 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B55" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
@@ -8208,12 +8303,12 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B56" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>10</v>
@@ -8225,12 +8320,12 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B57" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>10</v>
@@ -8242,12 +8337,12 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B58" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
@@ -8259,12 +8354,12 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B59" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -8276,12 +8371,12 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B60" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>10</v>
@@ -8293,12 +8388,12 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B61" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
@@ -8310,12 +8405,12 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
@@ -8327,15 +8422,15 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B63" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D63" s="1">
         <v>16</v>
@@ -8344,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" outlineLevel="1">
@@ -8352,7 +8447,7 @@
         <v>102</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="1">
         <v>16</v>
@@ -8366,15 +8461,15 @@
     </row>
     <row r="65" spans="1:6" collapsed="1">
       <c r="A65" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B66" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
@@ -8386,12 +8481,12 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
@@ -8403,12 +8498,12 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B68" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
@@ -8420,12 +8515,12 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B69" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>10</v>
@@ -8437,12 +8532,12 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B70" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>30</v>
@@ -8454,12 +8549,12 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B71" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>83</v>
@@ -8471,12 +8566,12 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B72" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>10</v>
@@ -8488,12 +8583,12 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B73" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>42</v>
@@ -8505,12 +8600,12 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B74" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>30</v>
@@ -8522,12 +8617,12 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B75" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -8539,20 +8634,20 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:6" collapsed="1">
       <c r="A76" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B77" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
@@ -8564,12 +8659,12 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B78" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
@@ -8581,12 +8676,12 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B79" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
@@ -8598,12 +8693,12 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B80" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>3</v>
@@ -8615,12 +8710,12 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B81" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -8632,12 +8727,12 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B82" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -8649,12 +8744,12 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B83" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>30</v>
@@ -8666,12 +8761,12 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B84" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>30</v>
@@ -8685,7 +8780,7 @@
     </row>
     <row r="85" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B85" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
@@ -8697,12 +8792,12 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B86" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>42</v>
@@ -8714,20 +8809,20 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:6" collapsed="1">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B88" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>10</v>
@@ -8739,12 +8834,12 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B89" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>10</v>
@@ -8756,12 +8851,12 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B90" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
@@ -8773,12 +8868,12 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B91" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>39</v>
@@ -8790,12 +8885,12 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B92" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>14</v>
@@ -8807,20 +8902,20 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:6" collapsed="1">
       <c r="A93" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B94" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -8832,12 +8927,12 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B95" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>10</v>
@@ -8849,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="96" spans="1:6" collapsed="1"/>
@@ -8885,27 +8980,27 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B2" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -8917,12 +9012,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -8934,12 +9029,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B4" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -8951,12 +9046,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B5" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -8968,12 +9063,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B6" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -8985,12 +9080,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B7" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -9002,12 +9097,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B8" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -9019,12 +9114,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -9036,12 +9131,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B10" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -9053,12 +9148,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -9070,12 +9165,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -9087,12 +9182,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -9104,12 +9199,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -9121,12 +9216,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -9138,12 +9233,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1" outlineLevel="1">
       <c r="B16" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>83</v>
@@ -9155,12 +9250,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -9172,12 +9267,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -9189,12 +9284,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B19" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -9206,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:6" hidden="1" outlineLevel="1">
@@ -9228,7 +9323,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B21" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -9240,12 +9335,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B22" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>72</v>
@@ -9257,12 +9352,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B23" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -9274,12 +9369,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B24" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
@@ -9291,20 +9386,20 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:6" collapsed="1">
       <c r="A25" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B26" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -9316,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:6" hidden="1" outlineLevel="2">
@@ -9335,7 +9430,7 @@
     </row>
     <row r="28" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B28" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>72</v>
@@ -9347,12 +9442,12 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B29" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>83</v>
@@ -9364,12 +9459,12 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B30" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>83</v>
@@ -9381,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:6" hidden="1" outlineLevel="2">
@@ -9398,12 +9493,12 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B32" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -9415,12 +9510,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B33" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>83</v>
@@ -9432,12 +9527,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B34" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>83</v>
@@ -9449,12 +9544,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B35" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>83</v>
@@ -9466,12 +9561,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B36" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>72</v>
@@ -9485,7 +9580,7 @@
     </row>
     <row r="37" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B37" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -9499,7 +9594,7 @@
     </row>
     <row r="38" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B38" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -9513,7 +9608,7 @@
     </row>
     <row r="39" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B39" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
@@ -9527,15 +9622,15 @@
     </row>
     <row r="40" spans="1:6" collapsed="1">
       <c r="A40" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B41" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -9547,12 +9642,12 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B42" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
@@ -9564,12 +9659,12 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B43" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -9581,12 +9676,12 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B44" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -9598,12 +9693,12 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B45" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -9615,12 +9710,12 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B46" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
@@ -9632,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" outlineLevel="1">
@@ -9654,7 +9749,7 @@
     </row>
     <row r="48" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>10</v>
@@ -9666,12 +9761,12 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B49" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>10</v>
@@ -9683,12 +9778,12 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B50" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>10</v>
@@ -9700,12 +9795,12 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B51" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>10</v>
@@ -9717,12 +9812,12 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B52" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -9734,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" outlineLevel="1">
@@ -9756,7 +9851,7 @@
     </row>
     <row r="54" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B54" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>72</v>
@@ -9770,7 +9865,7 @@
     </row>
     <row r="55" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B55" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>72</v>
@@ -9782,12 +9877,12 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B56" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>10</v>
@@ -9799,15 +9894,15 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:6" collapsed="1">
       <c r="A57" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" outlineLevel="2">
@@ -9824,12 +9919,12 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B59" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>46</v>
@@ -9841,12 +9936,12 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B60" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>46</v>
@@ -9858,12 +9953,12 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B61" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
@@ -9875,12 +9970,12 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B62" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -9892,12 +9987,12 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B63" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -9909,12 +10004,12 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B64" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -9926,12 +10021,12 @@
         <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" outlineLevel="2">
       <c r="B65" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>42</v>
@@ -9945,10 +10040,10 @@
     </row>
     <row r="66" spans="1:6" collapsed="1">
       <c r="A66" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" outlineLevel="1">
@@ -9965,12 +10060,12 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B68" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
@@ -9982,12 +10077,12 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B69" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>10</v>
@@ -9999,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" outlineLevel="1">
@@ -10016,12 +10111,12 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B71" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>83</v>
@@ -10033,12 +10128,12 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B72" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>72</v>
@@ -10050,12 +10145,12 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B73" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>42</v>
@@ -10067,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" outlineLevel="1">
@@ -10123,10 +10218,10 @@
     </row>
     <row r="77" spans="1:6" collapsed="1">
       <c r="A77" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:6" hidden="1" outlineLevel="1">
@@ -10143,12 +10238,12 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B79" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>10</v>
@@ -10160,12 +10255,12 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B80" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>10</v>
@@ -10177,20 +10272,20 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="81" spans="1:6" collapsed="1">
       <c r="A81" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B82" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -10202,12 +10297,12 @@
         <v>0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B83" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -10219,12 +10314,12 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B84" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>10</v>
@@ -10236,12 +10331,12 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B85" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>10</v>
@@ -10253,12 +10348,12 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B86" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
@@ -10270,12 +10365,12 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B87" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>14</v>
@@ -10287,12 +10382,12 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B88" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>14</v>
@@ -10306,7 +10401,7 @@
     </row>
     <row r="89" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B89" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>10</v>
@@ -10320,7 +10415,7 @@
     </row>
     <row r="90" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B90" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>42</v>
@@ -10334,7 +10429,7 @@
     </row>
     <row r="91" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B91" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>42</v>
@@ -10346,12 +10441,12 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B92" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>42</v>
@@ -10363,20 +10458,20 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:6" collapsed="1">
       <c r="A93" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B94" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
@@ -10388,12 +10483,12 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B95" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>14</v>
@@ -10405,12 +10500,12 @@
         <v>0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="96" spans="1:6" hidden="1" outlineLevel="1">
       <c r="B96" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>10</v>
@@ -10422,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="97" collapsed="1"/>
@@ -10456,7 +10551,7 @@
     <row r="2" spans="2:7">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -10468,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -10486,13 +10581,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -10504,13 +10599,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -10522,13 +10617,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -10544,7 +10639,7 @@
     <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -10556,13 +10651,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
@@ -10574,13 +10669,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -10592,13 +10687,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -10610,13 +10705,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -10632,7 +10727,7 @@
     <row r="12" spans="2:7">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
@@ -10644,13 +10739,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -10662,13 +10757,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -10680,13 +10775,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -10698,13 +10793,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -10716,13 +10811,13 @@
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -10734,13 +10829,13 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>42</v>
@@ -10752,13 +10847,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -10774,7 +10869,7 @@
     <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -10790,7 +10885,7 @@
     <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -10806,7 +10901,7 @@
     <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -10822,7 +10917,7 @@
     <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
@@ -10838,7 +10933,7 @@
     <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -10854,7 +10949,7 @@
     <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
@@ -10870,7 +10965,7 @@
     <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -10886,10 +10981,10 @@
     <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E27" s="1">
         <v>16</v>
@@ -10902,10 +10997,10 @@
     <row r="28" spans="2:7">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="1">
         <v>16</v>
@@ -10918,10 +11013,10 @@
     <row r="29" spans="2:7">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E29" s="1">
         <v>16</v>
@@ -10950,7 +11045,7 @@
     <row r="31" spans="2:7">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>10</v>
@@ -10966,7 +11061,7 @@
     <row r="32" spans="2:7">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>10</v>
@@ -10982,7 +11077,7 @@
     <row r="33" spans="2:7">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>42</v>
@@ -10998,7 +11093,7 @@
     <row r="34" spans="2:7">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>42</v>
@@ -11030,7 +11125,7 @@
     <row r="36" spans="2:7">
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>30</v>
@@ -11046,7 +11141,7 @@
     <row r="37" spans="2:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>30</v>
@@ -11062,7 +11157,7 @@
     <row r="38" spans="2:7">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>30</v>
@@ -11094,7 +11189,7 @@
     <row r="40" spans="2:7">
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>10</v>
@@ -11110,7 +11205,7 @@
     <row r="41" spans="2:7">
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -11126,7 +11221,7 @@
     <row r="42" spans="2:7">
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>10</v>
@@ -11142,7 +11237,7 @@
     <row r="43" spans="2:7">
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -11158,7 +11253,7 @@
     <row r="44" spans="2:7">
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -11174,7 +11269,7 @@
     <row r="45" spans="2:7">
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
@@ -11190,7 +11285,7 @@
     <row r="46" spans="2:7">
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>30</v>
@@ -11206,7 +11301,7 @@
     <row r="47" spans="2:7">
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>10</v>
@@ -11222,7 +11317,7 @@
     <row r="48" spans="2:7">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>42</v>
@@ -11238,7 +11333,7 @@
     <row r="49" spans="2:7">
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>10</v>
@@ -11254,7 +11349,7 @@
     <row r="50" spans="2:7">
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>10</v>
@@ -11270,7 +11365,7 @@
     <row r="51" spans="2:7">
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>10</v>
@@ -11286,7 +11381,7 @@
     <row r="52" spans="2:7">
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>10</v>
@@ -11302,7 +11397,7 @@
     <row r="53" spans="2:7">
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>10</v>
@@ -11318,7 +11413,7 @@
     <row r="54" spans="2:7">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>10</v>
@@ -11334,7 +11429,7 @@
     <row r="55" spans="2:7">
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>10</v>
@@ -11350,7 +11445,7 @@
     <row r="56" spans="2:7">
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -11366,7 +11461,7 @@
     <row r="57" spans="2:7">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -11382,7 +11477,7 @@
     <row r="58" spans="2:7">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>10</v>
@@ -11398,7 +11493,7 @@
     <row r="59" spans="2:7">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>7</v>
@@ -11414,7 +11509,7 @@
     <row r="60" spans="2:7">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>10</v>
@@ -11430,7 +11525,7 @@
     <row r="61" spans="2:7">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
@@ -11446,7 +11541,7 @@
     <row r="62" spans="2:7">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
@@ -11462,7 +11557,7 @@
     <row r="63" spans="2:7">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>7</v>
@@ -11478,7 +11573,7 @@
     <row r="64" spans="2:7">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>7</v>
@@ -11494,7 +11589,7 @@
     <row r="65" spans="2:7">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>7</v>
@@ -11510,7 +11605,7 @@
     <row r="66" spans="2:7">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>7</v>
@@ -11526,7 +11621,7 @@
     <row r="67" spans="2:7">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>72</v>
@@ -11542,7 +11637,7 @@
     <row r="68" spans="2:7">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -11558,7 +11653,7 @@
     <row r="69" spans="2:7">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>3</v>
@@ -11574,7 +11669,7 @@
     <row r="70" spans="2:7">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
@@ -11590,7 +11685,7 @@
     <row r="71" spans="2:7">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -11606,7 +11701,7 @@
     <row r="72" spans="2:7">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
@@ -11622,7 +11717,7 @@
     <row r="73" spans="2:7">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>42</v>
@@ -11638,7 +11733,7 @@
     <row r="74" spans="2:7">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>10</v>
@@ -11679,15 +11774,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:6" outlineLevel="1">
       <c r="B2" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -11699,12 +11794,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:6" outlineLevel="1">
       <c r="B3" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -11716,12 +11811,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:6" outlineLevel="1">
       <c r="B4" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -11733,12 +11828,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:6" outlineLevel="1">
       <c r="B5" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -11750,12 +11845,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:6" outlineLevel="1">
       <c r="B6" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -11767,12 +11862,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6" outlineLevel="1">
       <c r="B7" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -11784,12 +11879,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="1">
       <c r="B8" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
@@ -11801,12 +11896,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:6" outlineLevel="1">
       <c r="B9" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>30</v>
@@ -11818,12 +11913,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:6" outlineLevel="1">
       <c r="B10" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -11835,12 +11930,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:6" outlineLevel="1">
       <c r="B11" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -11852,12 +11947,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:6" outlineLevel="1">
       <c r="B12" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>3</v>
@@ -11869,12 +11964,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:6" outlineLevel="1">
       <c r="B13" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>69</v>
@@ -11886,12 +11981,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14" spans="1:6" outlineLevel="1">
       <c r="B14" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -11903,12 +11998,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:6" outlineLevel="1">
       <c r="B15" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
@@ -11920,12 +12015,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:6" outlineLevel="1">
       <c r="B16" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -11937,12 +12032,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" spans="2:6" outlineLevel="1">
       <c r="B17" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -11954,12 +12049,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18" spans="2:6" outlineLevel="1">
       <c r="B18" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -11971,12 +12066,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="2:6" outlineLevel="1">
       <c r="B19" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>10</v>
@@ -11988,12 +12083,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="2:6" outlineLevel="1">
       <c r="B20" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
@@ -12005,12 +12100,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="2:6" outlineLevel="1">
       <c r="B21" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
@@ -12022,12 +12117,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="2:6" outlineLevel="1">
       <c r="B22" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>10</v>
@@ -12039,12 +12134,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="2:6" outlineLevel="1">
       <c r="B23" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>10</v>
@@ -12056,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="2:6" outlineLevel="1">
@@ -12073,12 +12168,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="2:6" outlineLevel="1">
       <c r="B25" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>14</v>
@@ -12092,7 +12187,7 @@
     </row>
     <row r="26" spans="2:6" outlineLevel="1">
       <c r="B26" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>3</v>
@@ -12106,7 +12201,7 @@
     </row>
     <row r="27" spans="2:6" outlineLevel="1">
       <c r="B27" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>10</v>
@@ -12118,12 +12213,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="2:6" outlineLevel="1">
       <c r="B28" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>10</v>
@@ -12135,12 +12230,12 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="2:6" outlineLevel="1">
       <c r="B29" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
@@ -12152,12 +12247,12 @@
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="2:6" outlineLevel="1">
       <c r="B30" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
@@ -12169,12 +12264,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="2:6" outlineLevel="1">
       <c r="B31" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>10</v>
@@ -12186,12 +12281,12 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="2:6" outlineLevel="1">
       <c r="B32" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>10</v>
@@ -12203,12 +12298,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="1:6" outlineLevel="1">
       <c r="B33" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>10</v>
@@ -12220,12 +12315,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="1:6" outlineLevel="1">
       <c r="B34" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -12237,12 +12332,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35" spans="1:6" outlineLevel="1">
       <c r="B35" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>10</v>
@@ -12256,7 +12351,7 @@
     </row>
     <row r="36" spans="1:6" outlineLevel="1">
       <c r="B36" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>83</v>
@@ -12268,12 +12363,12 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="37" spans="1:6" outlineLevel="1">
       <c r="B37" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>10</v>
@@ -12285,12 +12380,12 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:6" outlineLevel="1">
       <c r="B38" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>10</v>
@@ -12302,12 +12397,12 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:6" outlineLevel="1">
       <c r="B39" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>10</v>
@@ -12319,12 +12414,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:6" outlineLevel="1">
       <c r="B40" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>10</v>
@@ -12336,12 +12431,12 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:6" outlineLevel="1">
       <c r="B41" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>10</v>
@@ -12353,12 +12448,12 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:6" outlineLevel="1">
       <c r="B42" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>10</v>
@@ -12370,12 +12465,12 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="1:6" outlineLevel="1">
       <c r="B43" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>10</v>
@@ -12387,12 +12482,12 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="1:6" outlineLevel="1">
       <c r="B44" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>30</v>
@@ -12404,12 +12499,12 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:6" outlineLevel="1">
       <c r="B45" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>42</v>
@@ -12421,23 +12516,23 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>769</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="47" spans="1:6" outlineLevel="1">
       <c r="B47" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D47" s="6">
         <v>32</v>
@@ -12446,12 +12541,12 @@
         <v>0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="48" spans="1:6" outlineLevel="1">
       <c r="B48" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>10</v>
@@ -12463,7 +12558,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="49" spans="1:7" outlineLevel="1">
@@ -12485,18 +12580,18 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="51" spans="1:7" outlineLevel="1">
       <c r="B51" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D51" s="2">
         <v>6</v>
@@ -12505,12 +12600,12 @@
         <v>1</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="52" spans="1:7" outlineLevel="1">
       <c r="B52" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>46</v>
@@ -12522,12 +12617,12 @@
         <v>1</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="53" spans="1:7" outlineLevel="1">
       <c r="B53" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>46</v>
@@ -12539,15 +12634,15 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:7" outlineLevel="1">
       <c r="B54" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>46</v>
@@ -12559,12 +12654,12 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="1:7" outlineLevel="1">
       <c r="B55" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>46</v>
@@ -12576,12 +12671,12 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="56" spans="1:7" outlineLevel="1">
       <c r="B56" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>46</v>
@@ -12593,53 +12688,53 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>780</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>781</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:7" outlineLevel="1">
       <c r="B58" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D58" s="2">
         <v>32</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" outlineLevel="1">
       <c r="B59" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D59" s="2">
         <v>32</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" outlineLevel="1">
       <c r="B60" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>46</v>
@@ -12649,106 +12744,106 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G60" s="5"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D61" s="2"/>
       <c r="G61" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="62" spans="1:7" outlineLevel="1">
       <c r="B62" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D62" s="2">
         <v>32</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="63" spans="1:7" outlineLevel="1">
       <c r="B63" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D63" s="2">
         <v>32</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="64" spans="1:7" outlineLevel="1">
       <c r="B64" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D64" s="2">
         <v>6</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:7" outlineLevel="1">
       <c r="B66" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D66" s="2">
         <v>6</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:7" outlineLevel="1">
       <c r="B67" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D67" s="2">
         <v>6</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" spans="1:7" outlineLevel="1">
       <c r="B68" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>46</v>
@@ -12758,12 +12853,12 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:7" outlineLevel="1">
       <c r="B69" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>46</v>
@@ -12773,25 +12868,25 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="70" spans="1:7" outlineLevel="1">
       <c r="B70" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:7" outlineLevel="1">
       <c r="B71" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>46</v>
@@ -12801,28 +12896,28 @@
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" outlineLevel="1">
       <c r="B72" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D72" s="2">
         <v>5</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:7" outlineLevel="1">
       <c r="B73" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>46</v>
@@ -12832,20 +12927,20 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="75" spans="1:7" outlineLevel="1">
       <c r="B75" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>46</v>
@@ -12859,7 +12954,7 @@
     </row>
     <row r="76" spans="1:7" outlineLevel="1">
       <c r="B76" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>46</v>
@@ -12873,7 +12968,7 @@
     </row>
     <row r="77" spans="1:7" outlineLevel="1">
       <c r="B77" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>46</v>
@@ -12887,7 +12982,7 @@
     </row>
     <row r="78" spans="1:7" outlineLevel="1">
       <c r="B78" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>46</v>
@@ -12901,10 +12996,10 @@
     </row>
     <row r="79" spans="1:7" outlineLevel="1">
       <c r="B79" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D79" s="6">
         <v>5</v>
@@ -12915,7 +13010,7 @@
     </row>
     <row r="80" spans="1:7" outlineLevel="1">
       <c r="B80" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>46</v>
@@ -12929,7 +13024,7 @@
     </row>
     <row r="81" spans="1:5" outlineLevel="1">
       <c r="B81" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>46</v>
@@ -12943,7 +13038,7 @@
     </row>
     <row r="82" spans="1:5" outlineLevel="1">
       <c r="B82" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>46</v>
@@ -12957,15 +13052,15 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="84" spans="1:5" outlineLevel="1">
       <c r="B84" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>46</v>
@@ -12979,7 +13074,7 @@
     </row>
     <row r="85" spans="1:5" outlineLevel="1">
       <c r="B85" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>46</v>
@@ -13019,15 +13114,15 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -13039,12 +13134,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -13056,12 +13151,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -13073,12 +13168,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -13090,12 +13185,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -13107,12 +13202,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -13124,12 +13219,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
@@ -13141,12 +13236,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -13158,12 +13253,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -13175,12 +13270,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -13192,12 +13287,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -13209,12 +13304,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>69</v>
@@ -13226,12 +13321,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -13243,12 +13338,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
@@ -13260,12 +13355,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -13277,12 +13372,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
@@ -13294,12 +13389,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -13311,12 +13406,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -13328,12 +13423,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -13345,12 +13440,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
@@ -13362,12 +13457,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -13379,12 +13474,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>10</v>
@@ -13396,12 +13491,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>83</v>
@@ -13415,7 +13510,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -13427,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -13449,7 +13544,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>14</v>
@@ -13463,7 +13558,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -13477,7 +13572,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>10</v>
@@ -13489,12 +13584,12 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
@@ -13506,12 +13601,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -13523,12 +13618,12 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>10</v>
@@ -13540,12 +13635,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -13557,12 +13652,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
@@ -13574,12 +13669,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -13591,12 +13686,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
@@ -13608,12 +13703,12 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
@@ -13627,7 +13722,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>83</v>
@@ -13639,12 +13734,12 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
@@ -13656,12 +13751,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
@@ -13673,12 +13768,12 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>10</v>
@@ -13690,12 +13785,12 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
@@ -13707,12 +13802,12 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
@@ -13724,12 +13819,12 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
@@ -13741,12 +13836,12 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
@@ -13758,12 +13853,12 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>30</v>
@@ -13775,12 +13870,12 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>42</v>
@@ -13792,7 +13887,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -13806,7 +13901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -13822,28 +13917,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1">
       <c r="A1" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>953</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>989</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13851,25 +13946,25 @@
         <v>101</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C2" s="14">
         <v>10101</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="27" t="s">
+        <v>965</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>833</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>966</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
@@ -13879,16 +13974,16 @@
         <v>10102</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>835</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>967</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>836</v>
-      </c>
       <c r="G3" s="28" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H3" s="34"/>
     </row>
@@ -13899,16 +13994,16 @@
         <v>10103</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="G4" s="28" t="s">
         <v>968</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>838</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>969</v>
       </c>
       <c r="H4" s="34"/>
     </row>
@@ -13919,16 +14014,16 @@
         <v>10104</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>841</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>840</v>
-      </c>
       <c r="G5" s="28" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H5" s="34"/>
     </row>
@@ -13937,25 +14032,25 @@
         <v>102</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C6" s="16">
         <v>10201</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>843</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="28" t="s">
+        <v>992</v>
+      </c>
+      <c r="H6" s="42" t="s">
         <v>844</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>993</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
@@ -13965,16 +14060,16 @@
         <v>10202</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>847</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>848</v>
-      </c>
       <c r="G7" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H7" s="42"/>
     </row>
@@ -13985,16 +14080,16 @@
         <v>10203</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>849</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>851</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>850</v>
-      </c>
       <c r="G8" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H8" s="42"/>
     </row>
@@ -14005,16 +14100,16 @@
         <v>10204</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>852</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>853</v>
-      </c>
       <c r="F9" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H9" s="42"/>
     </row>
@@ -14023,19 +14118,19 @@
         <v>103</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C10" s="16">
         <v>10301</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>856</v>
-      </c>
       <c r="F10" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="42"/>
@@ -14047,13 +14142,13 @@
         <v>10302</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>857</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>859</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>858</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="42"/>
@@ -14065,13 +14160,13 @@
         <v>10303</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>861</v>
-      </c>
       <c r="F12" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="42"/>
@@ -14083,16 +14178,16 @@
         <v>10304</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H13" s="42"/>
     </row>
@@ -14103,13 +14198,13 @@
         <v>10305</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>15</v>
@@ -14123,13 +14218,13 @@
         <v>10306</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>15</v>
@@ -14143,13 +14238,13 @@
         <v>10307</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>15</v>
@@ -14161,25 +14256,25 @@
         <v>104</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C17" s="16">
         <v>10401</v>
       </c>
       <c r="D17" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>869</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>870</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>872</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
@@ -14189,13 +14284,13 @@
         <v>10402</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>873</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>875</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>874</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="34"/>
@@ -14205,19 +14300,19 @@
         <v>105</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C19" s="19">
         <v>10501</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>876</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>878</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>877</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="34"/>
@@ -14227,25 +14322,25 @@
         <v>106</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C20" s="16">
         <v>10601</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>880</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>883</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="H20" s="38" t="s">
         <v>881</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>988</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.5">
@@ -14255,16 +14350,16 @@
         <v>10602</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>886</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>885</v>
-      </c>
       <c r="G21" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H21" s="38"/>
     </row>
@@ -14275,16 +14370,16 @@
         <v>10603</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>888</v>
-      </c>
       <c r="G22" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H22" s="38"/>
     </row>
@@ -14295,16 +14390,16 @@
         <v>10604</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>891</v>
-      </c>
       <c r="G23" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H23" s="38"/>
     </row>
@@ -14315,16 +14410,16 @@
         <v>10605</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>894</v>
-      </c>
       <c r="G24" s="28" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H24" s="38"/>
     </row>
@@ -14335,13 +14430,13 @@
         <v>10606</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>896</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>898</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>897</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="38"/>
@@ -14351,25 +14446,25 @@
         <v>107</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C26" s="16">
         <v>10701</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>899</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>900</v>
-      </c>
       <c r="G26" s="28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -14379,16 +14474,16 @@
         <v>10702</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>973</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>902</v>
-      </c>
       <c r="G27" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H27" s="34"/>
     </row>
@@ -14399,16 +14494,16 @@
         <v>10703</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>904</v>
-      </c>
       <c r="G28" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H28" s="34"/>
     </row>
@@ -14419,16 +14514,16 @@
         <v>10704</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>905</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>906</v>
-      </c>
       <c r="G29" s="28" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H29" s="34"/>
     </row>
@@ -14437,25 +14532,25 @@
         <v>108</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C30" s="16">
         <v>10801</v>
       </c>
       <c r="D30" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>909</v>
-      </c>
       <c r="G30" s="29" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="22.5">
@@ -14465,16 +14560,16 @@
         <v>10802</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>955</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>956</v>
-      </c>
       <c r="G31" s="28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H31" s="38"/>
     </row>
@@ -14485,16 +14580,16 @@
         <v>10803</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>975</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>976</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>977</v>
-      </c>
       <c r="G32" s="28" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H32" s="38"/>
     </row>
@@ -14505,16 +14600,16 @@
         <v>10804</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>982</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="F33" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="G33" s="28" t="s">
         <v>984</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>985</v>
       </c>
       <c r="H33" s="38"/>
     </row>
@@ -14525,16 +14620,16 @@
         <v>10805</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>911</v>
-      </c>
       <c r="F34" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H34" s="38"/>
     </row>
@@ -14543,23 +14638,23 @@
         <v>109</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C35" s="16">
         <v>10901</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>913</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>915</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>914</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5">
@@ -14567,25 +14662,25 @@
         <v>110</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C36" s="16">
         <v>11001</v>
       </c>
       <c r="D36" s="22" t="s">
+        <v>957</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>958</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>917</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>959</v>
-      </c>
       <c r="G36" s="31" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -14595,16 +14690,16 @@
         <v>11002</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>918</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>920</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>919</v>
-      </c>
       <c r="G37" s="28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -14615,13 +14710,13 @@
         <v>11003</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="34"/>
@@ -14633,16 +14728,16 @@
         <v>11004</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>924</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>923</v>
-      </c>
       <c r="G39" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H39" s="34"/>
     </row>
@@ -14651,23 +14746,23 @@
         <v>111</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C40" s="16">
         <v>11101</v>
       </c>
       <c r="D40" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>947</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>949</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>948</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.5">
@@ -14675,23 +14770,23 @@
         <v>112</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C41" s="19">
         <v>11201</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>926</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>929</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>927</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="37" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="22.5">
@@ -14701,13 +14796,13 @@
         <v>11202</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>929</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>930</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>931</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="37"/>
@@ -14719,13 +14814,13 @@
         <v>11203</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>933</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>935</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>934</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="37"/>
@@ -14737,13 +14832,13 @@
         <v>11204</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>936</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>937</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="37"/>
@@ -14753,23 +14848,23 @@
         <v>113</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C45" s="16">
         <v>11301</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -14779,10 +14874,10 @@
         <v>11302</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="28"/>
@@ -14795,10 +14890,10 @@
         <v>11303</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="28"/>
@@ -14811,13 +14906,13 @@
         <v>11304</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="34"/>
@@ -14827,23 +14922,23 @@
         <v>114</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C49" s="24">
         <v>11401</v>
       </c>
       <c r="D49" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="F49" s="25" t="s">
         <v>951</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>965</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>952</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="13" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
